--- a/data_in/translate_PROJ.xlsx
+++ b/data_in/translate_PROJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\winfs-proj\data\proj\havgem\Mo-PROJEKTKATALOG\Uppdrag\HaV\Datavärdskapet_oceanografi_och_marinbiologi\2022\Städning\Translate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCA947C-EC23-4C5F-A156-714BA21FB67A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA30A877-3BE2-4276-966B-103D633D5DDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="3250" xr2:uid="{1A0B3E34-E74F-4EB7-997F-926D3A9788AA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="3260" xr2:uid="{1A0B3E34-E74F-4EB7-997F-926D3A9788AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="872">
   <si>
     <t>BNO</t>
   </si>
@@ -1377,9 +1377,6 @@
     <t>Regional monitoring, The County Administration Board of Gävleborg</t>
   </si>
   <si>
-    <t>Miljöövervakning X-län 2014&lt;or&gt;Vegetationsklädda bottnar i Gävleborgs läns kustvatten - Trendövervakning 2016</t>
-  </si>
-  <si>
     <t>HAL</t>
   </si>
   <si>
@@ -2593,6 +2590,57 @@
   </si>
   <si>
     <t>xxx</t>
+  </si>
+  <si>
+    <t>&lt;use_blank&gt;</t>
+  </si>
+  <si>
+    <t>projekt saknas&lt;or&gt;-</t>
+  </si>
+  <si>
+    <t>Miljöövervakning X-län 2014&lt;or&gt;Vegetationsklädda bottnar i Gävleborgs läns kustvatten - Trendövervakning 2016&lt;or&gt;Inventeringar vid Agön/Kråkön</t>
+  </si>
+  <si>
+    <t>PROJ Inventering av marin fauna och flora i Halland</t>
+  </si>
+  <si>
+    <t>Inventory of marin fauna and flora in Halland</t>
+  </si>
+  <si>
+    <t>PHA</t>
+  </si>
+  <si>
+    <t>PROJ Videokartering av marina naturvärden i södra Öresund och området mellan Helsingborg-Helsingör 2022</t>
+  </si>
+  <si>
+    <t>DMM</t>
+  </si>
+  <si>
+    <t>Videokartering av marina naturvärden i södra Öresund och området mellan Helsingborg-Helsingör 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nidingen-Hållsundsudde-Fjärehals&lt;or&gt;Nidingen-Hållsundsudde-Fjärehalsor&lt;or&gt;Inventering av marin fauna och flora i Halland 1997: Nidingen-Hållsundsudde-Fjärehals&lt;or&gt;Varbergs hamn&lt;or&gt;Grundområden Epifauna Halland&lt;or&gt;Grundområden Infauna Halland</t>
+  </si>
+  <si>
+    <t>PABN</t>
+  </si>
+  <si>
+    <t>PROJ Marinbiologiska inventeringar i Nämdöskärgården</t>
+  </si>
+  <si>
+    <t>PROJ: Marinbiologiska inventeringar i Nämdöskärgården. Del 1: Dykinventering av vegetationsklädda hårdbottnar.</t>
+  </si>
+  <si>
+    <t>PROJ Marine biological inventories in the Nämdö archipelago</t>
+  </si>
+  <si>
+    <t>PML</t>
+  </si>
+  <si>
+    <t>PROJ Skåne län</t>
+  </si>
+  <si>
+    <t>PROJ Skåne county</t>
   </si>
 </sst>
 </file>
@@ -3017,10 +3065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23198DC7-7ECB-44AE-9516-21530A2BB8E3}">
-  <dimension ref="A1:S320"/>
+  <dimension ref="A1:S325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="E326" sqref="E326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3030,43 +3078,43 @@
     <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="70.453125" customWidth="1"/>
-    <col min="6" max="6" width="97.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="97.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
+        <v>827</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>828</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>829</v>
-      </c>
       <c r="C1" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="13" t="s">
         <v>835</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -3084,10 +3132,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
@@ -3105,10 +3153,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -3126,10 +3174,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -3145,10 +3193,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>15</v>
@@ -3164,10 +3212,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>18</v>
@@ -3185,10 +3233,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
@@ -3206,10 +3254,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>26</v>
@@ -3227,10 +3275,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
@@ -3246,10 +3294,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
@@ -3267,10 +3315,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>37</v>
@@ -3288,10 +3336,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>41</v>
@@ -3309,10 +3357,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>45</v>
@@ -3324,16 +3372,16 @@
         <v>47</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>48</v>
@@ -3349,10 +3397,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>51</v>
@@ -3370,10 +3418,10 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>55</v>
@@ -3389,10 +3437,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>58</v>
@@ -3408,10 +3456,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>61</v>
@@ -3427,10 +3475,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>64</v>
@@ -3448,10 +3496,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>68</v>
@@ -3469,10 +3517,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>72</v>
@@ -3490,10 +3538,10 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>76</v>
@@ -3511,10 +3559,10 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>80</v>
@@ -3532,10 +3580,10 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>84</v>
@@ -3553,10 +3601,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>88</v>
@@ -3568,16 +3616,16 @@
         <v>90</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>91</v>
@@ -3595,10 +3643,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>95</v>
@@ -3616,10 +3664,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>99</v>
@@ -3637,10 +3685,10 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>103</v>
@@ -3658,10 +3706,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>107</v>
@@ -3679,10 +3727,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>111</v>
@@ -3700,10 +3748,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>115</v>
@@ -3721,10 +3769,10 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>119</v>
@@ -3742,10 +3790,10 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>123</v>
@@ -3763,10 +3811,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>127</v>
@@ -3784,10 +3832,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>131</v>
@@ -3805,10 +3853,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>135</v>
@@ -3826,10 +3874,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>139</v>
@@ -3847,10 +3895,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>143</v>
@@ -3868,10 +3916,10 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>147</v>
@@ -3883,16 +3931,16 @@
         <v>149</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>150</v>
@@ -3908,10 +3956,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>153</v>
@@ -3930,10 +3978,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>157</v>
@@ -3952,10 +4000,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>161</v>
@@ -3972,10 +4020,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>164</v>
@@ -3987,17 +4035,17 @@
         <v>166</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H46" s="4"/>
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>167</v>
@@ -4014,10 +4062,10 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>170</v>
@@ -4036,10 +4084,10 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>174</v>
@@ -4056,10 +4104,10 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>177</v>
@@ -4076,10 +4124,10 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>180</v>
@@ -4096,10 +4144,10 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>183</v>
@@ -4116,10 +4164,10 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>186</v>
@@ -4138,10 +4186,10 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>190</v>
@@ -4160,10 +4208,10 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>194</v>
@@ -4180,10 +4228,10 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>197</v>
@@ -4202,10 +4250,10 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>201</v>
@@ -4224,10 +4272,10 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>205</v>
@@ -4246,10 +4294,10 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>209</v>
@@ -4268,10 +4316,10 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>213</v>
@@ -4290,10 +4338,10 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>217</v>
@@ -4312,10 +4360,10 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>221</v>
@@ -4334,10 +4382,10 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>225</v>
@@ -4356,10 +4404,10 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>229</v>
@@ -4371,17 +4419,17 @@
         <v>231</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H64" s="4"/>
       <c r="K64" s="3"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>232</v>
@@ -4400,10 +4448,10 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>235</v>
@@ -4422,10 +4470,10 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>239</v>
@@ -4444,10 +4492,10 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>243</v>
@@ -4459,17 +4507,17 @@
         <v>245</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H68" s="4"/>
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>246</v>
@@ -4486,10 +4534,10 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>249</v>
@@ -4508,10 +4556,10 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>253</v>
@@ -4530,10 +4578,10 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>257</v>
@@ -4550,10 +4598,10 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>260</v>
@@ -4569,10 +4617,10 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>263</v>
@@ -4588,10 +4636,10 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>266</v>
@@ -4607,10 +4655,10 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>269</v>
@@ -4628,10 +4676,10 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>273</v>
@@ -4649,10 +4697,10 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>277</v>
@@ -4670,10 +4718,10 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>281</v>
@@ -4689,10 +4737,10 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>284</v>
@@ -4708,10 +4756,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>287</v>
@@ -4729,10 +4777,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>291</v>
@@ -4748,10 +4796,10 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>294</v>
@@ -4769,10 +4817,10 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>298</v>
@@ -4788,10 +4836,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>301</v>
@@ -4809,10 +4857,10 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>305</v>
@@ -4828,10 +4876,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>308</v>
@@ -4843,16 +4891,16 @@
         <v>310</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H87" s="4"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>311</v>
@@ -4870,10 +4918,10 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>315</v>
@@ -4891,10 +4939,10 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>319</v>
@@ -4910,10 +4958,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>322</v>
@@ -4931,10 +4979,10 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>326</v>
@@ -4952,10 +5000,10 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>330</v>
@@ -4973,10 +5021,10 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>334</v>
@@ -4994,10 +5042,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>338</v>
@@ -5015,10 +5063,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>342</v>
@@ -5034,10 +5082,10 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>345</v>
@@ -5055,10 +5103,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>349</v>
@@ -5076,10 +5124,10 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>353</v>
@@ -5097,10 +5145,10 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>357</v>
@@ -5118,10 +5166,10 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>361</v>
@@ -5139,10 +5187,10 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>365</v>
@@ -5160,10 +5208,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>369</v>
@@ -5181,10 +5229,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>373</v>
@@ -5202,10 +5250,10 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>377</v>
@@ -5223,10 +5271,10 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>381</v>
@@ -5244,10 +5292,10 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>385</v>
@@ -5265,10 +5313,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>389</v>
@@ -5286,10 +5334,10 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>393</v>
@@ -5307,10 +5355,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>397</v>
@@ -5328,10 +5376,10 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>401</v>
@@ -5349,10 +5397,10 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>405</v>
@@ -5370,10 +5418,10 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>409</v>
@@ -5391,10 +5439,10 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>413</v>
@@ -5412,10 +5460,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>416</v>
@@ -5431,10 +5479,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>419</v>
@@ -5452,10 +5500,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>422</v>
@@ -5471,10 +5519,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>425</v>
@@ -5490,10 +5538,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>428</v>
@@ -5511,10 +5559,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>432</v>
@@ -5530,10 +5578,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>435</v>
@@ -5551,10 +5599,10 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>439</v>
@@ -5572,10 +5620,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>443</v>
@@ -5593,10 +5641,10 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>447</v>
@@ -5608,495 +5656,495 @@
         <v>449</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>450</v>
+        <v>857</v>
       </c>
       <c r="H124" s="4"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="E125" s="3" t="s">
+      <c r="F125" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="G125" s="3" t="s">
         <v>453</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>454</v>
       </c>
       <c r="H125" s="4"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D126" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="E126" s="3" t="s">
+      <c r="F126" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F126" s="3" t="s">
+      <c r="G126" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E127" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E127" s="3" t="s">
+      <c r="F127" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="F127" s="3" t="s">
+      <c r="G127" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="G127" s="3" t="s">
-        <v>462</v>
       </c>
       <c r="H127" s="4"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D128" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E128" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="F128" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="G128" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>466</v>
       </c>
       <c r="H128" s="4"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E129" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="E129" s="3" t="s">
+      <c r="F129" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="G129" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="H129" s="4"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D130" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E130" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E130" s="3" t="s">
+      <c r="F130" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" s="4"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D131" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="E131" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="E131" s="9" t="s">
+      <c r="F131" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="F131" s="3" t="s">
-        <v>476</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D132" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="E132" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="E132" s="9" t="s">
+      <c r="F132" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>479</v>
       </c>
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E133" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="E133" s="3" t="s">
+      <c r="F133" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="G133" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="H133" s="4"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E134" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="E134" s="3" t="s">
+      <c r="F134" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="F134" s="3" t="s">
+      <c r="G134" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>487</v>
       </c>
       <c r="H134" s="4"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E135" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="E135" s="3" t="s">
+      <c r="F135" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>490</v>
       </c>
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E136" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="E136" s="3" t="s">
+      <c r="F136" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="F136" s="3" t="s">
+      <c r="G136" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>494</v>
       </c>
       <c r="H136" s="4"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D137" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E137" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="E137" s="3" t="s">
+      <c r="F137" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="G137" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="H137" s="4"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E138" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="E138" s="3" t="s">
+      <c r="F138" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="F138" s="3" t="s">
+      <c r="G138" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="G138" s="3" t="s">
-        <v>502</v>
       </c>
       <c r="H138" s="4"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="E139" s="3" t="s">
+      <c r="F139" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="G139" s="3" t="s">
         <v>505</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>506</v>
       </c>
       <c r="H139" s="4"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D140" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="E140" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E140" s="3" t="s">
+      <c r="F140" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="G140" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="H140" s="4"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E141" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="F141" s="3" t="s">
         <v>512</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>513</v>
       </c>
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D142" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E142" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="E142" s="3" t="s">
+      <c r="F142" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="F142" s="3" t="s">
+      <c r="G142" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>517</v>
       </c>
       <c r="H142" s="4"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D143" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E143" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="F143" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="F143" s="3" t="s">
+      <c r="G143" s="3" t="s">
         <v>520</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>521</v>
       </c>
       <c r="H143" s="4"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D144" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E144" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="E144" s="3" t="s">
+      <c r="F144" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>524</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D145" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="F145" s="3" t="s">
         <v>526</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>527</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D146" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="E146" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="E146" s="9" t="s">
+      <c r="F146" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>530</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D147" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="E147" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="E147" s="3" t="s">
+      <c r="F147" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="F147" s="3" t="s">
+      <c r="G147" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>534</v>
       </c>
       <c r="H147" s="4"/>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E148" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="E148" s="3" t="s">
+      <c r="F148" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="F148" s="3" t="s">
-        <v>537</v>
-      </c>
       <c r="G148" s="5" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H148" s="4"/>
       <c r="M148" s="3"/>
@@ -6109,22 +6157,22 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D149" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E149" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="E149" s="3" t="s">
+      <c r="F149" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="F149" s="3" t="s">
+      <c r="G149" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>541</v>
       </c>
       <c r="H149" s="4"/>
       <c r="M149" s="3"/>
@@ -6137,19 +6185,19 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D150" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E150" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="E150" s="3" t="s">
+      <c r="F150" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>544</v>
       </c>
       <c r="G150" s="4"/>
       <c r="H150" s="4"/>
@@ -6163,22 +6211,22 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D151" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="E151" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="F151" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="F151" s="3" t="s">
+      <c r="G151" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>548</v>
       </c>
       <c r="H151" s="4"/>
       <c r="M151" s="3"/>
@@ -6191,22 +6239,22 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D152" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E152" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="E152" s="3" t="s">
+      <c r="F152" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="F152" s="3" t="s">
+      <c r="G152" s="3" t="s">
         <v>551</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>552</v>
       </c>
       <c r="H152" s="4"/>
       <c r="M152" s="3"/>
@@ -6219,22 +6267,22 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D153" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E153" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="F153" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="F153" s="3" t="s">
+      <c r="G153" s="3" t="s">
         <v>555</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>556</v>
       </c>
       <c r="H153" s="4"/>
       <c r="M153" s="3"/>
@@ -6247,22 +6295,22 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E154" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="F154" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="F154" s="3" t="s">
+      <c r="G154" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="H154" s="4"/>
       <c r="M154" s="3"/>
@@ -6275,22 +6323,22 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D155" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="E155" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="E155" s="3" t="s">
+      <c r="F155" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="F155" s="3" t="s">
-        <v>563</v>
-      </c>
       <c r="G155" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H155" s="4"/>
       <c r="M155" s="3"/>
@@ -6303,22 +6351,22 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D156" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E156" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="E156" s="3" t="s">
+      <c r="F156" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="F156" s="3" t="s">
-        <v>566</v>
-      </c>
       <c r="G156" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H156" s="4"/>
       <c r="M156" s="3"/>
@@ -6331,22 +6379,22 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E157" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="F157" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="F157" s="3" t="s">
-        <v>569</v>
-      </c>
       <c r="G157" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H157" s="4"/>
       <c r="M157" s="3"/>
@@ -6359,22 +6407,22 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D158" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E158" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="F158" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="F158" s="3" t="s">
+      <c r="G158" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>573</v>
       </c>
       <c r="H158" s="4"/>
       <c r="M158" s="3"/>
@@ -6387,22 +6435,22 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D159" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E159" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="E159" s="3" t="s">
+      <c r="F159" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="F159" s="3" t="s">
+      <c r="G159" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>577</v>
       </c>
       <c r="H159" s="4"/>
       <c r="M159" s="3"/>
@@ -6415,19 +6463,19 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E160" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="F160" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>580</v>
       </c>
       <c r="G160" s="4"/>
       <c r="H160" s="4"/>
@@ -6441,652 +6489,652 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="E161" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="F161" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>583</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D162" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E162" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="F162" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="F162" s="3" t="s">
+      <c r="G162" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>587</v>
       </c>
       <c r="H162" s="4"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D163" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E163" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="E163" s="3" t="s">
+      <c r="F163" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="F163" s="3" t="s">
+      <c r="G163" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>591</v>
       </c>
       <c r="H163" s="4"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D164" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E164" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="E164" s="3" t="s">
+      <c r="F164" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>594</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D165" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E165" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="E165" s="3" t="s">
+      <c r="F165" s="3" t="s">
         <v>596</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>597</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D166" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E166" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="E166" s="3" t="s">
+      <c r="F166" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="F166" s="3" t="s">
+      <c r="G166" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>601</v>
       </c>
       <c r="H166" s="4"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E167" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="E167" s="3" t="s">
+      <c r="F167" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="F167" s="3" t="s">
+      <c r="G167" s="3" t="s">
         <v>604</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>605</v>
       </c>
       <c r="H167" s="4"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D168" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="E168" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="E168" s="3" t="s">
+      <c r="F168" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="F168" s="3" t="s">
+      <c r="G168" s="3" t="s">
         <v>608</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>609</v>
       </c>
       <c r="H168" s="4"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D169" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E169" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="E169" s="3" t="s">
+      <c r="F169" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="F169" s="3" t="s">
+      <c r="G169" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>613</v>
       </c>
       <c r="H169" s="4"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D170" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E170" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="E170" s="3" t="s">
+      <c r="F170" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="F170" s="3" t="s">
+      <c r="G170" s="3" t="s">
         <v>616</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>617</v>
       </c>
       <c r="H170" s="4"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D171" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="E171" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="E171" s="3" t="s">
+      <c r="F171" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="G171" s="3" t="s">
         <v>620</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>621</v>
       </c>
       <c r="H171" s="4"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D172" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E172" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="E172" s="3" t="s">
+      <c r="F172" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="G172" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>625</v>
       </c>
       <c r="H172" s="4"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D173" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E173" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="E173" s="3" t="s">
+      <c r="F173" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="F173" s="3" t="s">
+      <c r="G173" s="3" t="s">
         <v>628</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>629</v>
       </c>
       <c r="H173" s="4"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D174" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E174" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="F174" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="F174" s="3" t="s">
+      <c r="G174" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>633</v>
       </c>
       <c r="H174" s="4"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D175" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E175" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="F175" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="F175" s="3" t="s">
+      <c r="G175" s="3" t="s">
         <v>636</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>637</v>
       </c>
       <c r="H175" s="4"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D176" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="E176" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="E176" s="3" t="s">
+      <c r="F176" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="F176" s="3" t="s">
+      <c r="G176" s="3" t="s">
         <v>640</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>641</v>
       </c>
       <c r="H176" s="4"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D177" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E177" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="F177" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="F177" s="3" t="s">
+      <c r="G177" s="3" t="s">
         <v>644</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>645</v>
       </c>
       <c r="H177" s="4"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D178" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E178" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="E178" s="3" t="s">
+      <c r="F178" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="F178" s="3" t="s">
+      <c r="G178" s="3" t="s">
         <v>648</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>649</v>
       </c>
       <c r="H178" s="4"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D179" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="E179" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="E179" s="3" t="s">
+      <c r="F179" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="F179" s="3" t="s">
+      <c r="G179" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>653</v>
       </c>
       <c r="H179" s="4"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D180" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="E180" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="E180" s="3" t="s">
+      <c r="F180" s="3" t="s">
         <v>655</v>
       </c>
-      <c r="F180" s="3" t="s">
-        <v>656</v>
-      </c>
       <c r="G180" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H180" s="4"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D181" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="E181" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="F181" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="F181" s="3" t="s">
+      <c r="G181" s="3" t="s">
         <v>659</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>660</v>
       </c>
       <c r="H181" s="4"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D182" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E182" s="3" t="s">
         <v>661</v>
       </c>
-      <c r="E182" s="3" t="s">
+      <c r="F182" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="F182" s="3" t="s">
+      <c r="G182" s="3" t="s">
         <v>663</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>664</v>
       </c>
       <c r="H182" s="4"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D183" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E183" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="E183" s="3" t="s">
+      <c r="F183" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="F183" s="3" t="s">
+      <c r="G183" s="3" t="s">
         <v>667</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>668</v>
       </c>
       <c r="H183" s="4"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D184" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="E184" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="E184" s="3" t="s">
+      <c r="F184" s="3" t="s">
         <v>670</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>671</v>
       </c>
       <c r="G184" s="3"/>
       <c r="H184" s="4"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D185" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E185" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="F185" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="F185" s="3" t="s">
+      <c r="G185" s="3" t="s">
         <v>674</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>675</v>
       </c>
       <c r="H185" s="4"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E186" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="F186" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="F186" s="3" t="s">
+      <c r="G186" s="3" t="s">
         <v>678</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>679</v>
       </c>
       <c r="H186" s="4"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D187" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E187" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="F187" s="3" t="s">
         <v>681</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>682</v>
       </c>
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D188" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E188" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="E188" s="11" t="s">
+      <c r="F188" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="F188" s="3" t="s">
+      <c r="G188" s="3" t="s">
         <v>685</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>686</v>
       </c>
       <c r="H188" s="4"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D189" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="E189" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="E189" s="3" t="s">
+      <c r="F189" s="3" t="s">
         <v>688</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>689</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D190" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="E190" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="E190" s="3" t="s">
+      <c r="F190" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="F190" s="3" t="s">
+      <c r="G190" s="3" t="s">
         <v>692</v>
-      </c>
-      <c r="G190" s="3" t="s">
-        <v>693</v>
       </c>
       <c r="H190" s="4"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D191" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="E191" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="E191" s="3" t="s">
+      <c r="F191" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="F191" s="3" t="s">
+      <c r="G191" s="3" t="s">
         <v>696</v>
-      </c>
-      <c r="G191" s="3" t="s">
-        <v>697</v>
       </c>
       <c r="H191" s="4"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>244</v>
@@ -7095,1559 +7143,1645 @@
         <v>245</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D193" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="G193" s="3" t="s">
         <v>700</v>
-      </c>
-      <c r="G193" s="3" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H194" s="3"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H195" s="3"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H196" s="3"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="H197" s="3"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H198" s="3"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="H199" s="3"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="H200" s="3"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="H201" s="3"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H202" s="3"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="H203" s="3"/>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="H204" s="3"/>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H205" s="3"/>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H206" s="3"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="H207" s="3"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="H208" s="3"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H209" s="3"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H210" s="3"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H211" s="3"/>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H212" s="3"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H213" s="3"/>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H214" s="3"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H215" s="3"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H216" s="3"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H217" s="3"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H218" s="3"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H219" s="3"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H220" s="3"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D221" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H221" s="3"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H222" s="3"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H223" s="3"/>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H224" s="3"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H225" s="3"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H226" s="3"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H227" s="3"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H228" s="3"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H229" s="3"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H230" s="3"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H231" s="3"/>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H232" s="3"/>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H233" s="3"/>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H234" s="3"/>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H235" s="3"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H236" s="3"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H237" s="3"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H238" s="3"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H239" s="3"/>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H240" s="3"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H241" s="3"/>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H242" s="3"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H243" s="3"/>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H244" s="3"/>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H245" s="3"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H246" s="3"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H247" s="3"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H248" s="3"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H249" s="3"/>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H250" s="3"/>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D251" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H251" s="3"/>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D252" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H252" s="3"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D253" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H253" s="3"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H254" s="3"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H255" s="3"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H256" s="3"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H257" s="3"/>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H258" s="3"/>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H259" s="3"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H260" s="3"/>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H261" s="3"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H262" s="3"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H263" s="3"/>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H264" s="3"/>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H265" s="3"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H266" s="3"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H267" s="3"/>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H268" s="3"/>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H269" s="3"/>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H270" s="3"/>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H271" s="3"/>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G272" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H272" s="3"/>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G273" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H273" s="3"/>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G274" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H274" s="3"/>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G275" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H275" s="3"/>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G276" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H276" s="3"/>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G277" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H277" s="3"/>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G278" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H278" s="3"/>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G279" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H279" s="3"/>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G280" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H280" s="3"/>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G281" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H281" s="3"/>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G282" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H282" s="3"/>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H283" s="3"/>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G284" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H284" s="3"/>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H285" s="3"/>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G286" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H286" s="3"/>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H287" s="3"/>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G288" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H288" s="3"/>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H289" s="3"/>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G290" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H290" s="3"/>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G291" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H291" s="3"/>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G292" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H292" s="3"/>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H293" s="3"/>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G294" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H294" s="3"/>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G295" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H295" s="3"/>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G296" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H296" s="3"/>
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G297" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H297" s="3"/>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H298" s="3"/>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G299" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H299" s="3"/>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G300" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H300" s="3"/>
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G301" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H301" s="3"/>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G302" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H302" s="3"/>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G303" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H303" s="3"/>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H304" s="3"/>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H305" s="3"/>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H306" s="3"/>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H307" s="3"/>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G308" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H308" s="3"/>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G309" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H309" s="3"/>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H310" s="3"/>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G311" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H311" s="3"/>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G312" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H312" s="3"/>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G313" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H313" s="3"/>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G314" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H314" s="3"/>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G315" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H315" s="3"/>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G316" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H316" s="3"/>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G317" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H317" s="3"/>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G318" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H318" s="3"/>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E319" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F319" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G319" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H319" s="3"/>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E320" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F320" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G320" t="s">
-        <v>843</v>
+        <v>842</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>829</v>
+      </c>
+      <c r="C321" t="s">
+        <v>855</v>
+      </c>
+      <c r="G321" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>829</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="G322" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="H322" s="4"/>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>829</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="D323" t="s">
+        <v>862</v>
+      </c>
+      <c r="E323" t="s">
+        <v>861</v>
+      </c>
+      <c r="F323" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>829</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="D324" t="s">
+        <v>865</v>
+      </c>
+      <c r="E324" t="s">
+        <v>866</v>
+      </c>
+      <c r="F324" t="s">
+        <v>868</v>
+      </c>
+      <c r="G324" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A325" t="s">
+        <v>829</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="D325" t="s">
+        <v>869</v>
+      </c>
+      <c r="E325" t="s">
+        <v>870</v>
+      </c>
+      <c r="F325" t="s">
+        <v>871</v>
       </c>
     </row>
   </sheetData>

--- a/data_in/translate_PROJ.xlsx
+++ b/data_in/translate_PROJ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\winfs-proj\data\proj\havgem\Mo-PROJEKTKATALOG\Uppdrag\HaV\Datavärdskapet_oceanografi_och_marinbiologi\2022\Städning\Translate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes_shark\codes\data_in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA30A877-3BE2-4276-966B-103D633D5DDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8739C6CA-3ACB-4234-A057-7F15D74FA4D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="3260" xr2:uid="{1A0B3E34-E74F-4EB7-997F-926D3A9788AA}"/>
   </bookViews>
@@ -2544,9 +2544,6 @@
     <t>UME. VINDELÄLVEN&lt;or&gt;SRK.UME.VIND&lt;or&gt;REG_Ume_och_Vindelälvens_SRK&lt;or&gt;REG Ume och vindelälvens SRK</t>
   </si>
   <si>
-    <t>Nationella programmet Egentliga Östersjön&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Nationella programmet Egentliga Östersjön&lt;or&gt;Nationell provtagning&lt;or&gt;MÖP&lt;or&gt;BALTIC MON. PROG.&lt;or&gt;MAKROF. MJUKB. BOTTN. VIK.&lt;or&gt;NATL. PROG. BOTTN. VIK. 1998&lt;or&gt;Nationella programmet Bottniska Viken från 1998&lt;or&gt;PELAG. KEMI+BIOL. BOTTN. VIK.&lt;or&gt;PELAG. KEMI+BIOL. BOTTN. VIK.&lt;or&gt;PELAG. KEMI+BIOL. EG. ÖSTERSJ.&lt;or&gt;MAKROF. MJUKB. EG. ÖSTERSJ.&lt;or&gt;PELAG EG ÖSTERSJ&lt;or&gt;PELAG. KEMI+BIOL. EG. ÖSJ.+VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL.EG.ÖSJ.+VÄSTERHAV&lt;or&gt;PELAG. KEMI+BIOL.EG.ÖSJ.+VÄSTERHAV.&lt;or&gt;GRÅSÄL&lt;or&gt;VEG.KLÄDDA BOTTNAR KATTEG.&lt;or&gt;SVENSKA KUSTBV.&lt;or&gt;NATL MARBIO MILJÖÖV&lt;or&gt;VEG.KLÄDDA BOTTNAR SKAGER.&lt;or&gt;SMHI BASVERK.&lt;or&gt;SÄL-PATOLOGI&lt;or&gt;VIKARE&lt;or&gt;MAKROF. MJUKB. VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL. VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL. VÄSTERHAVET&lt;or&gt;PELAG.KEMI+BIOL. VÄSTERHAVET&lt;or&gt;Nationellt och regionalt program Västerhavet från 2002&lt;or&gt;VEG.KLÄDDA BOTTNAR ÖSTERSJ.&lt;or&gt;GAVIK. KUSTK.PROG.&lt;or&gt;RÅNEÅF. KUSTK.PROG.&lt;or&gt;Nationell miljöövervakning&lt;or&gt;Baltic Monitoring Program&lt;or&gt;Baltic_Monitoring_Program&lt;or&gt;Baltic Monitoring Program, 1989&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Nationella programmet Egentliga Östersjön, Utsjön 2007-&lt;or&gt; Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar, trend- och områdesövervakning - Västerhavet-Kattegatt&lt;or&gt; Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar - Västerhavet-Kattegatt&lt;or&gt; Nationell trendövervakning av vegetationsklädda bottnar i Blekinge&lt;or&gt; Nationell övervakning vid Askö&lt;or&gt;Nationell övervakning vid Gotland&lt;or&gt;NAT Nationell miljöövervakning, NAT Nationell miljöövervakning&lt;or&gt;NAT Nationell miljöövervakning, Utsjön 2007-&lt;or&gt;Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar - Västerhavet-Kattegatt&lt;or&gt;Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar, trend- och områdesövervakning - Västerhavet-Kattegatt&lt;or&gt;Nationell trendövervakning av vegetationsklädda bottnar i Blekinge&lt;or&gt;Nationell övervakning vid Askö&lt;or&gt;Nationell övervakning vid Gotland&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Vikare&lt;or&gt;NAT Askö&lt;or&gt;Nationellt program Egentliga Östersjön, Utsjöområden, 2016-&lt;or&gt;Manetövervakning_Släggö_Gullmarsfjorden&lt;or&gt;NAT Manetövervakning&lt;or&gt;KNUBBSÄL&lt;or&gt;NAT Nationell miljöövervakning Knubbsäl&lt;or&gt; kNUBBSÄL&lt;or&gt;Askö, Nationell-Regional övervakning, 2007-&lt;or&gt;Nationella programmet Egentliga Östersjön, regional&lt;or&gt;Pelagial biologi Bottniska viken&lt;or&gt;NATL&lt;or&gt;Nationell marin miljöövervakning&lt;or&gt;a_Nationell miljöövervakning mjukbotten, 2016-&lt;or&gt;Regional och Nationell marin miljöövervakning i Västernorrlands län&lt;or&gt;Askö, Nationella programmet Egentliga Östersjön, intensiv Askö. 1971-2006&lt;or&gt;Nationella Baltic Monitoring Programme, BMP, 1979-2006&lt;or&gt;Nationella programmet Egentliga Östersjön, 1971/76-2006&lt;or&gt;Vikare &lt;or&gt;Gräsö-Singö, Mats Waerns lokaler&lt;or&gt;Nationellt program Egentliga Östersjön, Utsjöområden&lt;or&gt; Askö, Nationell-Regional övervakning&lt;or&gt; Samordnad regional och nationell miljöövervakning på västkusten&lt;or&gt;Nationell miljöövervakning på Västkusten&lt;or&gt;Nationell MÖ mjukbotten sydostsverige, 2016-&lt;or&gt;Pmk extra 2011&lt;or&gt;NAT Nationell övervakning vid Askö&lt;or&gt;NAT Nationell övervakning vid Gotland&lt;or&gt;Samordnad regional och nationell miljöövervakning på västkusten från 2017&lt;or&gt;Nationella programmet Bottniska Viken stationsurvalsundersökning 1995 - 1997&lt;or&gt;Nationella programmet Bottniska Viken, intensivprogram i Norrbyområdet fram till 1997&lt;or&gt;NAT Nationell miljöövervakning,</t>
-  </si>
-  <si>
     <t>PELAG. VERIF. BOTTENH.&lt;or&gt;Lst X&lt;or&gt;PROJ_Bottenhavet_pelagisk_verifikation&lt;or&gt;PROJ Bottenhavet Pelagisk verifikation</t>
   </si>
   <si>
@@ -2641,6 +2638,9 @@
   </si>
   <si>
     <t>PROJ Skåne county</t>
+  </si>
+  <si>
+    <t>Nationella programmet Egentliga Östersjön&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Nationella programmet Egentliga Östersjön&lt;or&gt;Nationell provtagning&lt;or&gt;MÖP&lt;or&gt;BALTIC MON. PROG.&lt;or&gt;MAKROF. MJUKB. BOTTN. VIK.&lt;or&gt;NATL. PROG. BOTTN. VIK. 1998&lt;or&gt;Nationella programmet Bottniska Viken från 1998&lt;or&gt;PELAG. KEMI+BIOL. BOTTN. VIK.&lt;or&gt;PELAG. KEMI+BIOL. BOTTN. VIK.&lt;or&gt;PELAG. KEMI+BIOL. EG. ÖSTERSJ.&lt;or&gt;MAKROF. MJUKB. EG. ÖSTERSJ.&lt;or&gt;PELAG EG ÖSTERSJ&lt;or&gt;PELAG. KEMI+BIOL. EG. ÖSJ.+VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL.EG.ÖSJ.+VÄSTERHAV&lt;or&gt;PELAG. KEMI+BIOL.EG.ÖSJ.+VÄSTERHAV.&lt;or&gt;GRÅSÄL&lt;or&gt;VEG.KLÄDDA BOTTNAR KATTEG.&lt;or&gt;SVENSKA KUSTBV.&lt;or&gt;NATL MARBIO MILJÖÖV&lt;or&gt;VEG.KLÄDDA BOTTNAR SKAGER.&lt;or&gt;SMHI BASVERK.&lt;or&gt;SÄL-PATOLOGI&lt;or&gt;VIKARE&lt;or&gt;MAKROF. MJUKB. VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL. VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL. VÄSTERHAVET&lt;or&gt;PELAG.KEMI+BIOL. VÄSTERHAVET&lt;or&gt;Nationellt och regionalt program Västerhavet från 2002&lt;or&gt;VEG.KLÄDDA BOTTNAR ÖSTERSJ.&lt;or&gt;GAVIK. KUSTK.PROG.&lt;or&gt;RÅNEÅF. KUSTK.PROG.&lt;or&gt;Nationell miljöövervakning&lt;or&gt;Baltic Monitoring Program&lt;or&gt;Baltic_Monitoring_Program&lt;or&gt;Baltic Monitoring Program, 1989&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Nationella programmet Egentliga Östersjön, Utsjön 2007-&lt;or&gt; Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar, trend- och områdesövervakning - Västerhavet-Kattegatt&lt;or&gt; Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar - Västerhavet-Kattegatt&lt;or&gt; Nationell trendövervakning av vegetationsklädda bottnar i Blekinge&lt;or&gt; Nationell övervakning vid Askö&lt;or&gt;Nationell övervakning vid Gotland&lt;or&gt;NAT Nationell miljöövervakning, NAT Nationell miljöövervakning&lt;or&gt;NAT Nationell miljöövervakning, Utsjön 2007-&lt;or&gt;Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar - Västerhavet-Kattegatt&lt;or&gt;Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar, trend- och områdesövervakning - Västerhavet-Kattegatt&lt;or&gt;Nationell trendövervakning av vegetationsklädda bottnar i Blekinge&lt;or&gt;Nationell övervakning vid Askö&lt;or&gt;Nationell övervakning vid Gotland&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Vikare&lt;or&gt;NAT Askö&lt;or&gt;Nationellt program Egentliga Östersjön, Utsjöområden, 2016-&lt;or&gt;Manetövervakning_Släggö_Gullmarsfjorden&lt;or&gt;NAT Manetövervakning&lt;or&gt;KNUBBSÄL&lt;or&gt;NAT Nationell miljöövervakning Knubbsäl&lt;or&gt; kNUBBSÄL&lt;or&gt;Askö, Nationell-Regional övervakning, 2007-&lt;or&gt;Nationella programmet Egentliga Östersjön, regional&lt;or&gt;Pelagial biologi Bottniska viken&lt;or&gt;NATL&lt;or&gt;Nationell marin miljöövervakning&lt;or&gt;a_Nationell miljöövervakning mjukbotten, 2016-&lt;or&gt;Regional och Nationell marin miljöövervakning i Västernorrlands län&lt;or&gt;Askö, Nationella programmet Egentliga Östersjön, intensiv Askö. 1971-2006&lt;or&gt;Nationella Baltic Monitoring Programme, BMP, 1979-2006&lt;or&gt;Nationella programmet Egentliga Östersjön, 1971/76-2006&lt;or&gt;Vikare &lt;or&gt;Gräsö-Singö, Mats Waerns lokaler&lt;or&gt;Nationellt program Egentliga Östersjön, Utsjöområden&lt;or&gt; Askö, Nationell-Regional övervakning&lt;or&gt; Samordnad regional och nationell miljöövervakning på västkusten&lt;or&gt;Nationell miljöövervakning på Västkusten&lt;or&gt;Nationell MÖ mjukbotten sydostsverige, 2016-&lt;or&gt;Pmk extra 2011&lt;or&gt;NAT Nationell övervakning vid Askö&lt;or&gt;NAT Nationell övervakning vid Gotland&lt;or&gt;Samordnad regional och nationell miljöövervakning på västkusten från 2017&lt;or&gt;Nationella programmet Bottniska Viken stationsurvalsundersökning 1995 - 1997&lt;or&gt;Nationella programmet Bottniska Viken, intensivprogram i Norrbyområdet fram till 1997&lt;or&gt;NAT Nationell miljöövervakning,&lt;or&gt;NATL Singö</t>
   </si>
 </sst>
 </file>
@@ -3067,8 +3067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23198DC7-7ECB-44AE-9516-21530A2BB8E3}">
   <dimension ref="A1:S325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="E326" sqref="E326"/>
+    <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3372,7 +3372,7 @@
         <v>47</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>839</v>
+        <v>871</v>
       </c>
       <c r="H14" s="4"/>
     </row>
@@ -3616,7 +3616,7 @@
         <v>90</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H26" s="4"/>
     </row>
@@ -4035,7 +4035,7 @@
         <v>166</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H46" s="4"/>
       <c r="K46" s="3"/>
@@ -4419,7 +4419,7 @@
         <v>231</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H64" s="4"/>
       <c r="K64" s="3"/>
@@ -4507,7 +4507,7 @@
         <v>245</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H68" s="4"/>
       <c r="K68" s="3"/>
@@ -5656,7 +5656,7 @@
         <v>449</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H124" s="4"/>
     </row>
@@ -6338,7 +6338,7 @@
         <v>562</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H155" s="4"/>
       <c r="M155" s="3"/>
@@ -6366,7 +6366,7 @@
         <v>565</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H156" s="4"/>
       <c r="M156" s="3"/>
@@ -6394,7 +6394,7 @@
         <v>568</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H157" s="4"/>
       <c r="M157" s="3"/>
@@ -8665,16 +8665,16 @@
         <v>836</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E319" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F319" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G319" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H319" s="3"/>
     </row>
@@ -8686,16 +8686,16 @@
         <v>836</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E320" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F320" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G320" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.35">
@@ -8703,10 +8703,10 @@
         <v>829</v>
       </c>
       <c r="C321" t="s">
+        <v>854</v>
+      </c>
+      <c r="G321" t="s">
         <v>855</v>
-      </c>
-      <c r="G321" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.35">
@@ -8717,16 +8717,16 @@
         <v>836</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E322" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="F322" s="3" t="s">
         <v>858</v>
       </c>
-      <c r="F322" s="3" t="s">
-        <v>859</v>
-      </c>
       <c r="G322" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H322" s="4"/>
     </row>
@@ -8738,13 +8738,13 @@
         <v>836</v>
       </c>
       <c r="D323" t="s">
+        <v>861</v>
+      </c>
+      <c r="E323" t="s">
+        <v>860</v>
+      </c>
+      <c r="F323" t="s">
         <v>862</v>
-      </c>
-      <c r="E323" t="s">
-        <v>861</v>
-      </c>
-      <c r="F323" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.35">
@@ -8755,16 +8755,16 @@
         <v>836</v>
       </c>
       <c r="D324" t="s">
+        <v>864</v>
+      </c>
+      <c r="E324" t="s">
         <v>865</v>
       </c>
-      <c r="E324" t="s">
+      <c r="F324" t="s">
+        <v>867</v>
+      </c>
+      <c r="G324" t="s">
         <v>866</v>
-      </c>
-      <c r="F324" t="s">
-        <v>868</v>
-      </c>
-      <c r="G324" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.35">
@@ -8775,13 +8775,13 @@
         <v>836</v>
       </c>
       <c r="D325" t="s">
+        <v>868</v>
+      </c>
+      <c r="E325" t="s">
         <v>869</v>
       </c>
-      <c r="E325" t="s">
+      <c r="F325" t="s">
         <v>870</v>
-      </c>
-      <c r="F325" t="s">
-        <v>871</v>
       </c>
     </row>
   </sheetData>

--- a/data_in/translate_PROJ.xlsx
+++ b/data_in/translate_PROJ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes_shark\codes\data_in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8739C6CA-3ACB-4234-A057-7F15D74FA4D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C990AE2A-E13F-4E5A-A123-2C7E9E85198D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="3260" xr2:uid="{1A0B3E34-E74F-4EB7-997F-926D3A9788AA}"/>
   </bookViews>
@@ -2640,7 +2640,8 @@
     <t>PROJ Skåne county</t>
   </si>
   <si>
-    <t>Nationella programmet Egentliga Östersjön&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Nationella programmet Egentliga Östersjön&lt;or&gt;Nationell provtagning&lt;or&gt;MÖP&lt;or&gt;BALTIC MON. PROG.&lt;or&gt;MAKROF. MJUKB. BOTTN. VIK.&lt;or&gt;NATL. PROG. BOTTN. VIK. 1998&lt;or&gt;Nationella programmet Bottniska Viken från 1998&lt;or&gt;PELAG. KEMI+BIOL. BOTTN. VIK.&lt;or&gt;PELAG. KEMI+BIOL. BOTTN. VIK.&lt;or&gt;PELAG. KEMI+BIOL. EG. ÖSTERSJ.&lt;or&gt;MAKROF. MJUKB. EG. ÖSTERSJ.&lt;or&gt;PELAG EG ÖSTERSJ&lt;or&gt;PELAG. KEMI+BIOL. EG. ÖSJ.+VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL.EG.ÖSJ.+VÄSTERHAV&lt;or&gt;PELAG. KEMI+BIOL.EG.ÖSJ.+VÄSTERHAV.&lt;or&gt;GRÅSÄL&lt;or&gt;VEG.KLÄDDA BOTTNAR KATTEG.&lt;or&gt;SVENSKA KUSTBV.&lt;or&gt;NATL MARBIO MILJÖÖV&lt;or&gt;VEG.KLÄDDA BOTTNAR SKAGER.&lt;or&gt;SMHI BASVERK.&lt;or&gt;SÄL-PATOLOGI&lt;or&gt;VIKARE&lt;or&gt;MAKROF. MJUKB. VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL. VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL. VÄSTERHAVET&lt;or&gt;PELAG.KEMI+BIOL. VÄSTERHAVET&lt;or&gt;Nationellt och regionalt program Västerhavet från 2002&lt;or&gt;VEG.KLÄDDA BOTTNAR ÖSTERSJ.&lt;or&gt;GAVIK. KUSTK.PROG.&lt;or&gt;RÅNEÅF. KUSTK.PROG.&lt;or&gt;Nationell miljöövervakning&lt;or&gt;Baltic Monitoring Program&lt;or&gt;Baltic_Monitoring_Program&lt;or&gt;Baltic Monitoring Program, 1989&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Nationella programmet Egentliga Östersjön, Utsjön 2007-&lt;or&gt; Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar, trend- och områdesövervakning - Västerhavet-Kattegatt&lt;or&gt; Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar - Västerhavet-Kattegatt&lt;or&gt; Nationell trendövervakning av vegetationsklädda bottnar i Blekinge&lt;or&gt; Nationell övervakning vid Askö&lt;or&gt;Nationell övervakning vid Gotland&lt;or&gt;NAT Nationell miljöövervakning, NAT Nationell miljöövervakning&lt;or&gt;NAT Nationell miljöövervakning, Utsjön 2007-&lt;or&gt;Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar - Västerhavet-Kattegatt&lt;or&gt;Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar, trend- och områdesövervakning - Västerhavet-Kattegatt&lt;or&gt;Nationell trendövervakning av vegetationsklädda bottnar i Blekinge&lt;or&gt;Nationell övervakning vid Askö&lt;or&gt;Nationell övervakning vid Gotland&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Vikare&lt;or&gt;NAT Askö&lt;or&gt;Nationellt program Egentliga Östersjön, Utsjöområden, 2016-&lt;or&gt;Manetövervakning_Släggö_Gullmarsfjorden&lt;or&gt;NAT Manetövervakning&lt;or&gt;KNUBBSÄL&lt;or&gt;NAT Nationell miljöövervakning Knubbsäl&lt;or&gt; kNUBBSÄL&lt;or&gt;Askö, Nationell-Regional övervakning, 2007-&lt;or&gt;Nationella programmet Egentliga Östersjön, regional&lt;or&gt;Pelagial biologi Bottniska viken&lt;or&gt;NATL&lt;or&gt;Nationell marin miljöövervakning&lt;or&gt;a_Nationell miljöövervakning mjukbotten, 2016-&lt;or&gt;Regional och Nationell marin miljöövervakning i Västernorrlands län&lt;or&gt;Askö, Nationella programmet Egentliga Östersjön, intensiv Askö. 1971-2006&lt;or&gt;Nationella Baltic Monitoring Programme, BMP, 1979-2006&lt;or&gt;Nationella programmet Egentliga Östersjön, 1971/76-2006&lt;or&gt;Vikare &lt;or&gt;Gräsö-Singö, Mats Waerns lokaler&lt;or&gt;Nationellt program Egentliga Östersjön, Utsjöområden&lt;or&gt; Askö, Nationell-Regional övervakning&lt;or&gt; Samordnad regional och nationell miljöövervakning på västkusten&lt;or&gt;Nationell miljöövervakning på Västkusten&lt;or&gt;Nationell MÖ mjukbotten sydostsverige, 2016-&lt;or&gt;Pmk extra 2011&lt;or&gt;NAT Nationell övervakning vid Askö&lt;or&gt;NAT Nationell övervakning vid Gotland&lt;or&gt;Samordnad regional och nationell miljöövervakning på västkusten från 2017&lt;or&gt;Nationella programmet Bottniska Viken stationsurvalsundersökning 1995 - 1997&lt;or&gt;Nationella programmet Bottniska Viken, intensivprogram i Norrbyområdet fram till 1997&lt;or&gt;NAT Nationell miljöövervakning,&lt;or&gt;NATL Singö</t>
+    <t>Nationella programmet Egentliga Östersjön&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Nationella programmet Egentliga Östersjön&lt;or&gt;Nationell provtagning&lt;or&gt;MÖP&lt;or&gt;BALTIC MON. PROG.&lt;or&gt;MAKROF. MJUKB. BOTTN. VIK.&lt;or&gt;NATL. PROG. BOTTN. VIK. 1998&lt;or&gt;Nationella programmet Bottniska Viken från 1998&lt;or&gt;PELAG. KEMI+BIOL. BOTTN. VIK.&lt;or&gt;PELAG. KEMI+BIOL. BOTTN. VIK.&lt;or&gt;PELAG. KEMI+BIOL. EG. ÖSTERSJ.&lt;or&gt;MAKROF. MJUKB. EG. ÖSTERSJ.&lt;or&gt;PELAG EG ÖSTERSJ&lt;or&gt;PELAG. KEMI+BIOL. EG. ÖSJ.+VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL.EG.ÖSJ.+VÄSTERHAV&lt;or&gt;PELAG. KEMI+BIOL.EG.ÖSJ.+VÄSTERHAV.&lt;or&gt;GRÅSÄL&lt;or&gt;VEG.KLÄDDA BOTTNAR KATTEG.&lt;or&gt;SVENSKA KUSTBV.&lt;or&gt;NATL MARBIO MILJÖÖV&lt;or&gt;VEG.KLÄDDA BOTTNAR SKAGER.&lt;or&gt;SMHI BASVERK.&lt;or&gt;SÄL-PATOLOGI&lt;or&gt;VIKARE&lt;or&gt;MAKROF. MJUKB. VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL. VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL. VÄSTERHAVET&lt;or&gt;PELAG.KEMI+BIOL. VÄSTERHAVET&lt;or&gt;Nationellt och regionalt program Västerhavet från 2002&lt;or&gt;VEG.KLÄDDA BOTTNAR ÖSTERSJ.&lt;or&gt;GAVIK. KUSTK.PROG.&lt;or&gt;RÅNEÅF. KUSTK.PROG.&lt;or&gt;Nationell miljöövervakning&lt;or&gt;Baltic Monitoring Program&lt;or&gt;Baltic_Monitoring_Program&lt;or&gt;Baltic Monitoring Program, 1989&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Nationella programmet Egentliga Östersjön, Utsjön 2007-&lt;or&gt; Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar, trend- och områdesövervakning - Västerhavet-Kattegatt&lt;or&gt; Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar - Västerhavet-Kattegatt&lt;or&gt; Nationell trendövervakning av vegetationsklädda bottnar i Blekinge&lt;or&gt; Nationell övervakning vid Askö&lt;or&gt;Nationell övervakning vid Gotland&lt;or&gt;NAT Nationell miljöövervakning, NAT Nationell miljöövervakning&lt;or&gt;NAT Nationell miljöövervakning, Utsjön 2007-&lt;or&gt;Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar - Västerhavet-Kattegatt&lt;or&gt;Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar, trend- och områdesövervakning - Västerhavet-Kattegatt&lt;or&gt;Nationell trendövervakning av vegetationsklädda bottnar i Blekinge&lt;or&gt;Nationell övervakning vid Askö&lt;or&gt;Nationell övervakning vid Gotland&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Vikare&lt;or&gt;NAT Askö&lt;or&gt;Nationellt program Egentliga Östersjön, Utsjöområden, 2016-&lt;or&gt;Manetövervakning_Släggö_Gullmarsfjorden&lt;or&gt;NAT Manetövervakning&lt;or&gt;KNUBBSÄL&lt;or&gt;NAT Nationell miljöövervakning Knubbsäl&lt;or&gt; kNUBBSÄL&lt;or&gt;Askö, Nationell-Regional övervakning, 2007-&lt;or&gt;Nationella programmet Egentliga Östersjön, regional&lt;or&gt;Pelagial biologi Bottniska viken&lt;or&gt;NATL&lt;or&gt;Nationell marin miljöövervakning&lt;or&gt;a_Nationell miljöövervakning mjukbotten, 2016-&lt;or&gt;Regional och Nationell marin miljöövervakning i Västernorrlands län&lt;or&gt;Askö, Nationella programmet Egentliga Östersjön, intensiv Askö. 1971-2006&lt;or&gt;Nationella Baltic Monitoring Programme, BMP, 1979-2006&lt;or&gt;Nationella programmet Egentliga Östersjön, 1971/76-2006&lt;or&gt;Vikare &lt;or&gt;Gräsö-Singö, Mats Waerns lokaler&lt;or&gt;Nationellt program Egentliga Östersjön, Utsjöområden&lt;or&gt; Askö, Nationell-Regional övervakning&lt;or&gt; Samordnad regional och nationell miljöövervakning på västkusten&lt;or&gt;Nationell miljöövervakning på Västkusten&lt;or&gt;Nationell MÖ mjukbotten sydostsverige, 2016-&lt;or&gt;Pmk extra 2011&lt;or&gt;NAT Nationell övervakning vid Askö&lt;or&gt;NAT Nationell övervakning vid Gotland&lt;or&gt;Samordnad regional och nationell miljöövervakning på västkusten från 2017&lt;or&gt;Nationella programmet Bottniska Viken stationsurvalsundersökning 1995 - 1997&lt;or&gt;Nationella programmet Bottniska Viken, intensivprogram i Norrbyområdet fram till 1997&lt;or&gt;NAT Nationell miljöövervakning,&lt;or&gt;NATL Singö&lt;or&gt;NATL Askö - Mjukbotten
+NATL Askö - Mjukbotten</t>
   </si>
 </sst>
 </file>
@@ -2721,7 +2722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2749,6 +2750,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3068,7 +3072,7 @@
   <dimension ref="A1:S325"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3355,7 +3359,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="203" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>829</v>
       </c>
@@ -3371,7 +3375,7 @@
       <c r="F14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="14" t="s">
         <v>871</v>
       </c>
       <c r="H14" s="4"/>

--- a/data_in/translate_PROJ.xlsx
+++ b/data_in/translate_PROJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes_shark\codes\data_in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C990AE2A-E13F-4E5A-A123-2C7E9E85198D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C2AB4D-F932-4CA8-A462-A81AC39AB781}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="3260" xr2:uid="{1A0B3E34-E74F-4EB7-997F-926D3A9788AA}"/>
   </bookViews>
@@ -2641,7 +2641,7 @@
   </si>
   <si>
     <t>Nationella programmet Egentliga Östersjön&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Nationella programmet Egentliga Östersjön&lt;or&gt;Nationell provtagning&lt;or&gt;MÖP&lt;or&gt;BALTIC MON. PROG.&lt;or&gt;MAKROF. MJUKB. BOTTN. VIK.&lt;or&gt;NATL. PROG. BOTTN. VIK. 1998&lt;or&gt;Nationella programmet Bottniska Viken från 1998&lt;or&gt;PELAG. KEMI+BIOL. BOTTN. VIK.&lt;or&gt;PELAG. KEMI+BIOL. BOTTN. VIK.&lt;or&gt;PELAG. KEMI+BIOL. EG. ÖSTERSJ.&lt;or&gt;MAKROF. MJUKB. EG. ÖSTERSJ.&lt;or&gt;PELAG EG ÖSTERSJ&lt;or&gt;PELAG. KEMI+BIOL. EG. ÖSJ.+VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL.EG.ÖSJ.+VÄSTERHAV&lt;or&gt;PELAG. KEMI+BIOL.EG.ÖSJ.+VÄSTERHAV.&lt;or&gt;GRÅSÄL&lt;or&gt;VEG.KLÄDDA BOTTNAR KATTEG.&lt;or&gt;SVENSKA KUSTBV.&lt;or&gt;NATL MARBIO MILJÖÖV&lt;or&gt;VEG.KLÄDDA BOTTNAR SKAGER.&lt;or&gt;SMHI BASVERK.&lt;or&gt;SÄL-PATOLOGI&lt;or&gt;VIKARE&lt;or&gt;MAKROF. MJUKB. VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL. VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL. VÄSTERHAVET&lt;or&gt;PELAG.KEMI+BIOL. VÄSTERHAVET&lt;or&gt;Nationellt och regionalt program Västerhavet från 2002&lt;or&gt;VEG.KLÄDDA BOTTNAR ÖSTERSJ.&lt;or&gt;GAVIK. KUSTK.PROG.&lt;or&gt;RÅNEÅF. KUSTK.PROG.&lt;or&gt;Nationell miljöövervakning&lt;or&gt;Baltic Monitoring Program&lt;or&gt;Baltic_Monitoring_Program&lt;or&gt;Baltic Monitoring Program, 1989&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Nationella programmet Egentliga Östersjön, Utsjön 2007-&lt;or&gt; Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar, trend- och områdesövervakning - Västerhavet-Kattegatt&lt;or&gt; Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar - Västerhavet-Kattegatt&lt;or&gt; Nationell trendövervakning av vegetationsklädda bottnar i Blekinge&lt;or&gt; Nationell övervakning vid Askö&lt;or&gt;Nationell övervakning vid Gotland&lt;or&gt;NAT Nationell miljöövervakning, NAT Nationell miljöövervakning&lt;or&gt;NAT Nationell miljöövervakning, Utsjön 2007-&lt;or&gt;Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar - Västerhavet-Kattegatt&lt;or&gt;Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar, trend- och områdesövervakning - Västerhavet-Kattegatt&lt;or&gt;Nationell trendövervakning av vegetationsklädda bottnar i Blekinge&lt;or&gt;Nationell övervakning vid Askö&lt;or&gt;Nationell övervakning vid Gotland&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Vikare&lt;or&gt;NAT Askö&lt;or&gt;Nationellt program Egentliga Östersjön, Utsjöområden, 2016-&lt;or&gt;Manetövervakning_Släggö_Gullmarsfjorden&lt;or&gt;NAT Manetövervakning&lt;or&gt;KNUBBSÄL&lt;or&gt;NAT Nationell miljöövervakning Knubbsäl&lt;or&gt; kNUBBSÄL&lt;or&gt;Askö, Nationell-Regional övervakning, 2007-&lt;or&gt;Nationella programmet Egentliga Östersjön, regional&lt;or&gt;Pelagial biologi Bottniska viken&lt;or&gt;NATL&lt;or&gt;Nationell marin miljöövervakning&lt;or&gt;a_Nationell miljöövervakning mjukbotten, 2016-&lt;or&gt;Regional och Nationell marin miljöövervakning i Västernorrlands län&lt;or&gt;Askö, Nationella programmet Egentliga Östersjön, intensiv Askö. 1971-2006&lt;or&gt;Nationella Baltic Monitoring Programme, BMP, 1979-2006&lt;or&gt;Nationella programmet Egentliga Östersjön, 1971/76-2006&lt;or&gt;Vikare &lt;or&gt;Gräsö-Singö, Mats Waerns lokaler&lt;or&gt;Nationellt program Egentliga Östersjön, Utsjöområden&lt;or&gt; Askö, Nationell-Regional övervakning&lt;or&gt; Samordnad regional och nationell miljöövervakning på västkusten&lt;or&gt;Nationell miljöövervakning på Västkusten&lt;or&gt;Nationell MÖ mjukbotten sydostsverige, 2016-&lt;or&gt;Pmk extra 2011&lt;or&gt;NAT Nationell övervakning vid Askö&lt;or&gt;NAT Nationell övervakning vid Gotland&lt;or&gt;Samordnad regional och nationell miljöövervakning på västkusten från 2017&lt;or&gt;Nationella programmet Bottniska Viken stationsurvalsundersökning 1995 - 1997&lt;or&gt;Nationella programmet Bottniska Viken, intensivprogram i Norrbyområdet fram till 1997&lt;or&gt;NAT Nationell miljöövervakning,&lt;or&gt;NATL Singö&lt;or&gt;NATL Askö - Mjukbotten
-NATL Askö - Mjukbotten</t>
+NATL Askö - Mjukbotten&lt;or&gt;NATL Askö</t>
   </si>
 </sst>
 </file>
@@ -3072,7 +3072,7 @@
   <dimension ref="A1:S325"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="G14" sqref="A1:XFD1048576"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data_in/translate_PROJ.xlsx
+++ b/data_in/translate_PROJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\codes_shark\codes\data_in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C2AB4D-F932-4CA8-A462-A81AC39AB781}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97E01DF-56FC-4F8F-BDBF-DB00A1863EB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="3260" xr2:uid="{1A0B3E34-E74F-4EB7-997F-926D3A9788AA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="3255" xr2:uid="{1A0B3E34-E74F-4EB7-997F-926D3A9788AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -2640,8 +2640,7 @@
     <t>PROJ Skåne county</t>
   </si>
   <si>
-    <t>Nationella programmet Egentliga Östersjön&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Nationella programmet Egentliga Östersjön&lt;or&gt;Nationell provtagning&lt;or&gt;MÖP&lt;or&gt;BALTIC MON. PROG.&lt;or&gt;MAKROF. MJUKB. BOTTN. VIK.&lt;or&gt;NATL. PROG. BOTTN. VIK. 1998&lt;or&gt;Nationella programmet Bottniska Viken från 1998&lt;or&gt;PELAG. KEMI+BIOL. BOTTN. VIK.&lt;or&gt;PELAG. KEMI+BIOL. BOTTN. VIK.&lt;or&gt;PELAG. KEMI+BIOL. EG. ÖSTERSJ.&lt;or&gt;MAKROF. MJUKB. EG. ÖSTERSJ.&lt;or&gt;PELAG EG ÖSTERSJ&lt;or&gt;PELAG. KEMI+BIOL. EG. ÖSJ.+VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL.EG.ÖSJ.+VÄSTERHAV&lt;or&gt;PELAG. KEMI+BIOL.EG.ÖSJ.+VÄSTERHAV.&lt;or&gt;GRÅSÄL&lt;or&gt;VEG.KLÄDDA BOTTNAR KATTEG.&lt;or&gt;SVENSKA KUSTBV.&lt;or&gt;NATL MARBIO MILJÖÖV&lt;or&gt;VEG.KLÄDDA BOTTNAR SKAGER.&lt;or&gt;SMHI BASVERK.&lt;or&gt;SÄL-PATOLOGI&lt;or&gt;VIKARE&lt;or&gt;MAKROF. MJUKB. VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL. VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL. VÄSTERHAVET&lt;or&gt;PELAG.KEMI+BIOL. VÄSTERHAVET&lt;or&gt;Nationellt och regionalt program Västerhavet från 2002&lt;or&gt;VEG.KLÄDDA BOTTNAR ÖSTERSJ.&lt;or&gt;GAVIK. KUSTK.PROG.&lt;or&gt;RÅNEÅF. KUSTK.PROG.&lt;or&gt;Nationell miljöövervakning&lt;or&gt;Baltic Monitoring Program&lt;or&gt;Baltic_Monitoring_Program&lt;or&gt;Baltic Monitoring Program, 1989&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Nationella programmet Egentliga Östersjön, Utsjön 2007-&lt;or&gt; Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar, trend- och områdesövervakning - Västerhavet-Kattegatt&lt;or&gt; Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar - Västerhavet-Kattegatt&lt;or&gt; Nationell trendövervakning av vegetationsklädda bottnar i Blekinge&lt;or&gt; Nationell övervakning vid Askö&lt;or&gt;Nationell övervakning vid Gotland&lt;or&gt;NAT Nationell miljöövervakning, NAT Nationell miljöövervakning&lt;or&gt;NAT Nationell miljöövervakning, Utsjön 2007-&lt;or&gt;Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar - Västerhavet-Kattegatt&lt;or&gt;Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar, trend- och områdesövervakning - Västerhavet-Kattegatt&lt;or&gt;Nationell trendövervakning av vegetationsklädda bottnar i Blekinge&lt;or&gt;Nationell övervakning vid Askö&lt;or&gt;Nationell övervakning vid Gotland&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Vikare&lt;or&gt;NAT Askö&lt;or&gt;Nationellt program Egentliga Östersjön, Utsjöområden, 2016-&lt;or&gt;Manetövervakning_Släggö_Gullmarsfjorden&lt;or&gt;NAT Manetövervakning&lt;or&gt;KNUBBSÄL&lt;or&gt;NAT Nationell miljöövervakning Knubbsäl&lt;or&gt; kNUBBSÄL&lt;or&gt;Askö, Nationell-Regional övervakning, 2007-&lt;or&gt;Nationella programmet Egentliga Östersjön, regional&lt;or&gt;Pelagial biologi Bottniska viken&lt;or&gt;NATL&lt;or&gt;Nationell marin miljöövervakning&lt;or&gt;a_Nationell miljöövervakning mjukbotten, 2016-&lt;or&gt;Regional och Nationell marin miljöövervakning i Västernorrlands län&lt;or&gt;Askö, Nationella programmet Egentliga Östersjön, intensiv Askö. 1971-2006&lt;or&gt;Nationella Baltic Monitoring Programme, BMP, 1979-2006&lt;or&gt;Nationella programmet Egentliga Östersjön, 1971/76-2006&lt;or&gt;Vikare &lt;or&gt;Gräsö-Singö, Mats Waerns lokaler&lt;or&gt;Nationellt program Egentliga Östersjön, Utsjöområden&lt;or&gt; Askö, Nationell-Regional övervakning&lt;or&gt; Samordnad regional och nationell miljöövervakning på västkusten&lt;or&gt;Nationell miljöövervakning på Västkusten&lt;or&gt;Nationell MÖ mjukbotten sydostsverige, 2016-&lt;or&gt;Pmk extra 2011&lt;or&gt;NAT Nationell övervakning vid Askö&lt;or&gt;NAT Nationell övervakning vid Gotland&lt;or&gt;Samordnad regional och nationell miljöövervakning på västkusten från 2017&lt;or&gt;Nationella programmet Bottniska Viken stationsurvalsundersökning 1995 - 1997&lt;or&gt;Nationella programmet Bottniska Viken, intensivprogram i Norrbyområdet fram till 1997&lt;or&gt;NAT Nationell miljöövervakning,&lt;or&gt;NATL Singö&lt;or&gt;NATL Askö - Mjukbotten
-NATL Askö - Mjukbotten&lt;or&gt;NATL Askö</t>
+    <t>Nationella programmet Egentliga Östersjön&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Nationella programmet Egentliga Östersjön&lt;or&gt;Nationell provtagning&lt;or&gt;MÖP&lt;or&gt;BALTIC MON. PROG.&lt;or&gt;MAKROF. MJUKB. BOTTN. VIK.&lt;or&gt;NATL. PROG. BOTTN. VIK. 1998&lt;or&gt;Nationella programmet Bottniska Viken från 1998&lt;or&gt;PELAG. KEMI+BIOL. BOTTN. VIK.&lt;or&gt;PELAG. KEMI+BIOL. BOTTN. VIK.&lt;or&gt;PELAG. KEMI+BIOL. EG. ÖSTERSJ.&lt;or&gt;MAKROF. MJUKB. EG. ÖSTERSJ.&lt;or&gt;PELAG EG ÖSTERSJ&lt;or&gt;PELAG. KEMI+BIOL. EG. ÖSJ.+VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL.EG.ÖSJ.+VÄSTERHAV&lt;or&gt;PELAG. KEMI+BIOL.EG.ÖSJ.+VÄSTERHAV.&lt;or&gt;GRÅSÄL&lt;or&gt;VEG.KLÄDDA BOTTNAR KATTEG.&lt;or&gt;SVENSKA KUSTBV.&lt;or&gt;NATL MARBIO MILJÖÖV&lt;or&gt;VEG.KLÄDDA BOTTNAR SKAGER.&lt;or&gt;SMHI BASVERK.&lt;or&gt;SÄL-PATOLOGI&lt;or&gt;VIKARE&lt;or&gt;MAKROF. MJUKB. VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL. VÄSTERHAV.&lt;or&gt;PELAG. KEMI+BIOL. VÄSTERHAVET&lt;or&gt;PELAG.KEMI+BIOL. VÄSTERHAVET&lt;or&gt;Nationellt och regionalt program Västerhavet från 2002&lt;or&gt;VEG.KLÄDDA BOTTNAR ÖSTERSJ.&lt;or&gt;GAVIK. KUSTK.PROG.&lt;or&gt;RÅNEÅF. KUSTK.PROG.&lt;or&gt;Nationell miljöövervakning&lt;or&gt;Baltic Monitoring Program&lt;or&gt;Baltic_Monitoring_Program&lt;or&gt;Baltic Monitoring Program, 1989&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Nationella programmet Egentliga Östersjön, Utsjön 2007-&lt;or&gt; Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar, trend- och områdesövervakning - Västerhavet-Kattegatt&lt;or&gt; Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar - Västerhavet-Kattegatt&lt;or&gt; Nationell trendövervakning av vegetationsklädda bottnar i Blekinge&lt;or&gt; Nationell övervakning vid Askö&lt;or&gt;Nationell övervakning vid Gotland&lt;or&gt;NAT Nationell miljöövervakning, NAT Nationell miljöövervakning&lt;or&gt;NAT Nationell miljöövervakning, Utsjön 2007-&lt;or&gt;Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar - Västerhavet-Kattegatt&lt;or&gt;Nationell miljöövervakning -Kust och hav -Vegetationsklädda bottnar, trend- och områdesövervakning - Västerhavet-Kattegatt&lt;or&gt;Nationell trendövervakning av vegetationsklädda bottnar i Blekinge&lt;or&gt;Nationell övervakning vid Askö&lt;or&gt;Nationell övervakning vid Gotland&lt;or&gt;Nationella programmet Bottniska Viken från 2015&lt;or&gt;Vikare&lt;or&gt;NAT Askö&lt;or&gt;Nationellt program Egentliga Östersjön, Utsjöområden, 2016-&lt;or&gt;Manetövervakning_Släggö_Gullmarsfjorden&lt;or&gt;NAT Manetövervakning&lt;or&gt;KNUBBSÄL&lt;or&gt;NAT Nationell miljöövervakning Knubbsäl&lt;or&gt; kNUBBSÄL&lt;or&gt;Askö, Nationell-Regional övervakning, 2007-&lt;or&gt;Nationella programmet Egentliga Östersjön, regional&lt;or&gt;Pelagial biologi Bottniska viken&lt;or&gt;NATL&lt;or&gt;Nationell marin miljöövervakning&lt;or&gt;a_Nationell miljöövervakning mjukbotten, 2016-&lt;or&gt;Regional och Nationell marin miljöövervakning i Västernorrlands län&lt;or&gt;Askö, Nationella programmet Egentliga Östersjön, intensiv Askö. 1971-2006&lt;or&gt;Nationella Baltic Monitoring Programme, BMP, 1979-2006&lt;or&gt;Nationella programmet Egentliga Östersjön, 1971/76-2006&lt;or&gt;Vikare &lt;or&gt;Gräsö-Singö, Mats Waerns lokaler&lt;or&gt;Nationellt program Egentliga Östersjön, Utsjöområden&lt;or&gt; Askö, Nationell-Regional övervakning&lt;or&gt; Samordnad regional och nationell miljöövervakning på västkusten&lt;or&gt;Nationell miljöövervakning på Västkusten&lt;or&gt;Nationell MÖ mjukbotten sydostsverige, 2016-&lt;or&gt;Pmk extra 2011&lt;or&gt;NAT Nationell övervakning vid Askö&lt;or&gt;NAT Nationell övervakning vid Gotland&lt;or&gt;Samordnad regional och nationell miljöövervakning på västkusten från 2017&lt;or&gt;Nationella programmet Bottniska Viken stationsurvalsundersökning 1995 - 1997&lt;or&gt;Nationella programmet Bottniska Viken, intensivprogram i Norrbyområdet fram till 1997&lt;or&gt;NAT Nationell miljöövervakning,&lt;or&gt;NATL Singö&lt;or&gt;NATL Askö - MjukbottenNATL Askö - Mjukbotten&lt;or&gt;NATL Askö&lt;or&gt;NATL Askö - Mjukbotten NATL Askö - Mjukbotten&lt;or&gt;NATL Askö - Mjukbotten station 37</t>
   </si>
 </sst>
 </file>
@@ -3072,22 +3071,22 @@
   <dimension ref="A1:S325"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="70.453125" customWidth="1"/>
-    <col min="6" max="6" width="97.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="255.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.42578125" customWidth="1"/>
+    <col min="6" max="6" width="97.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>827</v>
       </c>
@@ -3113,7 +3112,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>829</v>
       </c>
@@ -3134,7 +3133,7 @@
       </c>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>829</v>
       </c>
@@ -3155,7 +3154,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>829</v>
       </c>
@@ -3176,7 +3175,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>829</v>
       </c>
@@ -3195,7 +3194,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>829</v>
       </c>
@@ -3214,7 +3213,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>829</v>
       </c>
@@ -3235,7 +3234,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>829</v>
       </c>
@@ -3256,7 +3255,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>829</v>
       </c>
@@ -3277,7 +3276,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>829</v>
       </c>
@@ -3296,7 +3295,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>829</v>
       </c>
@@ -3317,7 +3316,7 @@
       </c>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>829</v>
       </c>
@@ -3338,7 +3337,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>829</v>
       </c>
@@ -3359,7 +3358,7 @@
       </c>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="203" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>829</v>
       </c>
@@ -3380,7 +3379,7 @@
       </c>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>829</v>
       </c>
@@ -3399,7 +3398,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>829</v>
       </c>
@@ -3420,7 +3419,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>829</v>
       </c>
@@ -3439,7 +3438,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>829</v>
       </c>
@@ -3458,7 +3457,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>829</v>
       </c>
@@ -3477,7 +3476,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>829</v>
       </c>
@@ -3498,7 +3497,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>829</v>
       </c>
@@ -3519,7 +3518,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>829</v>
       </c>
@@ -3540,7 +3539,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>829</v>
       </c>
@@ -3561,7 +3560,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>829</v>
       </c>
@@ -3582,7 +3581,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>829</v>
       </c>
@@ -3603,7 +3602,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>829</v>
       </c>
@@ -3624,7 +3623,7 @@
       </c>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>829</v>
       </c>
@@ -3645,7 +3644,7 @@
       </c>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>829</v>
       </c>
@@ -3666,7 +3665,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>829</v>
       </c>
@@ -3687,7 +3686,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>829</v>
       </c>
@@ -3708,7 +3707,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>829</v>
       </c>
@@ -3729,7 +3728,7 @@
       </c>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>829</v>
       </c>
@@ -3750,7 +3749,7 @@
       </c>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>829</v>
       </c>
@@ -3771,7 +3770,7 @@
       </c>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>829</v>
       </c>
@@ -3792,7 +3791,7 @@
       </c>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>829</v>
       </c>
@@ -3813,7 +3812,7 @@
       </c>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>829</v>
       </c>
@@ -3834,7 +3833,7 @@
       </c>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>829</v>
       </c>
@@ -3855,7 +3854,7 @@
       </c>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>829</v>
       </c>
@@ -3876,7 +3875,7 @@
       </c>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>829</v>
       </c>
@@ -3897,7 +3896,7 @@
       </c>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>829</v>
       </c>
@@ -3918,7 +3917,7 @@
       </c>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>829</v>
       </c>
@@ -3939,7 +3938,7 @@
       </c>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>829</v>
       </c>
@@ -3958,7 +3957,7 @@
       <c r="H42" s="4"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>829</v>
       </c>
@@ -3980,7 +3979,7 @@
       <c r="H43" s="4"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>829</v>
       </c>
@@ -4002,7 +4001,7 @@
       <c r="H44" s="4"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>829</v>
       </c>
@@ -4022,7 +4021,7 @@
       <c r="H45" s="4"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>829</v>
       </c>
@@ -4044,7 +4043,7 @@
       <c r="H46" s="4"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>829</v>
       </c>
@@ -4064,7 +4063,7 @@
       <c r="H47" s="4"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>829</v>
       </c>
@@ -4086,7 +4085,7 @@
       <c r="H48" s="4"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>829</v>
       </c>
@@ -4106,7 +4105,7 @@
       <c r="H49" s="4"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>829</v>
       </c>
@@ -4126,7 +4125,7 @@
       <c r="H50" s="4"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>829</v>
       </c>
@@ -4146,7 +4145,7 @@
       <c r="H51" s="4"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>829</v>
       </c>
@@ -4166,7 +4165,7 @@
       <c r="H52" s="4"/>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>829</v>
       </c>
@@ -4188,7 +4187,7 @@
       <c r="H53" s="4"/>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>829</v>
       </c>
@@ -4210,7 +4209,7 @@
       <c r="H54" s="4"/>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>829</v>
       </c>
@@ -4230,7 +4229,7 @@
       <c r="H55" s="4"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>829</v>
       </c>
@@ -4252,7 +4251,7 @@
       <c r="H56" s="4"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>829</v>
       </c>
@@ -4274,7 +4273,7 @@
       <c r="H57" s="4"/>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>829</v>
       </c>
@@ -4296,7 +4295,7 @@
       <c r="H58" s="4"/>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>829</v>
       </c>
@@ -4318,7 +4317,7 @@
       <c r="H59" s="4"/>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>829</v>
       </c>
@@ -4340,7 +4339,7 @@
       <c r="H60" s="4"/>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>829</v>
       </c>
@@ -4362,7 +4361,7 @@
       <c r="H61" s="4"/>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>829</v>
       </c>
@@ -4384,7 +4383,7 @@
       <c r="H62" s="4"/>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>829</v>
       </c>
@@ -4406,7 +4405,7 @@
       <c r="H63" s="4"/>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>829</v>
       </c>
@@ -4428,7 +4427,7 @@
       <c r="H64" s="4"/>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>829</v>
       </c>
@@ -4450,7 +4449,7 @@
       <c r="H65" s="4"/>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>829</v>
       </c>
@@ -4472,7 +4471,7 @@
       <c r="H66" s="4"/>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>829</v>
       </c>
@@ -4494,7 +4493,7 @@
       <c r="H67" s="4"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>829</v>
       </c>
@@ -4516,7 +4515,7 @@
       <c r="H68" s="4"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>829</v>
       </c>
@@ -4536,7 +4535,7 @@
       <c r="H69" s="4"/>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>829</v>
       </c>
@@ -4558,7 +4557,7 @@
       <c r="H70" s="4"/>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>829</v>
       </c>
@@ -4580,7 +4579,7 @@
       <c r="H71" s="4"/>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>829</v>
       </c>
@@ -4600,7 +4599,7 @@
       <c r="H72" s="4"/>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>829</v>
       </c>
@@ -4619,7 +4618,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>829</v>
       </c>
@@ -4638,7 +4637,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>829</v>
       </c>
@@ -4657,7 +4656,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>829</v>
       </c>
@@ -4678,7 +4677,7 @@
       </c>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>829</v>
       </c>
@@ -4699,7 +4698,7 @@
       </c>
       <c r="H77" s="4"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>829</v>
       </c>
@@ -4720,7 +4719,7 @@
       </c>
       <c r="H78" s="4"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>829</v>
       </c>
@@ -4739,7 +4738,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>829</v>
       </c>
@@ -4758,7 +4757,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>829</v>
       </c>
@@ -4779,7 +4778,7 @@
       </c>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>829</v>
       </c>
@@ -4798,7 +4797,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>829</v>
       </c>
@@ -4819,7 +4818,7 @@
       </c>
       <c r="H83" s="4"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>829</v>
       </c>
@@ -4838,7 +4837,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>829</v>
       </c>
@@ -4859,7 +4858,7 @@
       </c>
       <c r="H85" s="4"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>829</v>
       </c>
@@ -4878,7 +4877,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>829</v>
       </c>
@@ -4899,7 +4898,7 @@
       </c>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>829</v>
       </c>
@@ -4920,7 +4919,7 @@
       </c>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>829</v>
       </c>
@@ -4941,7 +4940,7 @@
       </c>
       <c r="H89" s="4"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>829</v>
       </c>
@@ -4960,7 +4959,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>829</v>
       </c>
@@ -4981,7 +4980,7 @@
       </c>
       <c r="H91" s="4"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>829</v>
       </c>
@@ -5002,7 +5001,7 @@
       </c>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>829</v>
       </c>
@@ -5023,7 +5022,7 @@
       </c>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>829</v>
       </c>
@@ -5044,7 +5043,7 @@
       </c>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>829</v>
       </c>
@@ -5065,7 +5064,7 @@
       </c>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>829</v>
       </c>
@@ -5084,7 +5083,7 @@
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>829</v>
       </c>
@@ -5105,7 +5104,7 @@
       </c>
       <c r="H97" s="4"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>829</v>
       </c>
@@ -5126,7 +5125,7 @@
       </c>
       <c r="H98" s="4"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>829</v>
       </c>
@@ -5147,7 +5146,7 @@
       </c>
       <c r="H99" s="4"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>829</v>
       </c>
@@ -5168,7 +5167,7 @@
       </c>
       <c r="H100" s="4"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>829</v>
       </c>
@@ -5189,7 +5188,7 @@
       </c>
       <c r="H101" s="4"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>829</v>
       </c>
@@ -5210,7 +5209,7 @@
       </c>
       <c r="H102" s="4"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>829</v>
       </c>
@@ -5231,7 +5230,7 @@
       </c>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>829</v>
       </c>
@@ -5252,7 +5251,7 @@
       </c>
       <c r="H104" s="4"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>829</v>
       </c>
@@ -5273,7 +5272,7 @@
       </c>
       <c r="H105" s="4"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>829</v>
       </c>
@@ -5294,7 +5293,7 @@
       </c>
       <c r="H106" s="4"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>829</v>
       </c>
@@ -5315,7 +5314,7 @@
       </c>
       <c r="H107" s="4"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>829</v>
       </c>
@@ -5336,7 +5335,7 @@
       </c>
       <c r="H108" s="4"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>829</v>
       </c>
@@ -5357,7 +5356,7 @@
       </c>
       <c r="H109" s="4"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>829</v>
       </c>
@@ -5378,7 +5377,7 @@
       </c>
       <c r="H110" s="4"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>829</v>
       </c>
@@ -5399,7 +5398,7 @@
       </c>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>829</v>
       </c>
@@ -5420,7 +5419,7 @@
       </c>
       <c r="H112" s="4"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>829</v>
       </c>
@@ -5441,7 +5440,7 @@
       </c>
       <c r="H113" s="4"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>829</v>
       </c>
@@ -5462,7 +5461,7 @@
       </c>
       <c r="H114" s="4"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>829</v>
       </c>
@@ -5481,7 +5480,7 @@
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>829</v>
       </c>
@@ -5502,7 +5501,7 @@
       </c>
       <c r="H116" s="4"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>829</v>
       </c>
@@ -5521,7 +5520,7 @@
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>829</v>
       </c>
@@ -5540,7 +5539,7 @@
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>829</v>
       </c>
@@ -5561,7 +5560,7 @@
       </c>
       <c r="H119" s="4"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>829</v>
       </c>
@@ -5580,7 +5579,7 @@
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>829</v>
       </c>
@@ -5601,7 +5600,7 @@
       </c>
       <c r="H121" s="4"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>829</v>
       </c>
@@ -5622,7 +5621,7 @@
       </c>
       <c r="H122" s="4"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>829</v>
       </c>
@@ -5643,7 +5642,7 @@
       </c>
       <c r="H123" s="4"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>829</v>
       </c>
@@ -5664,7 +5663,7 @@
       </c>
       <c r="H124" s="4"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>829</v>
       </c>
@@ -5685,7 +5684,7 @@
       </c>
       <c r="H125" s="4"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>829</v>
       </c>
@@ -5706,7 +5705,7 @@
       </c>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>829</v>
       </c>
@@ -5727,7 +5726,7 @@
       </c>
       <c r="H127" s="4"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>829</v>
       </c>
@@ -5748,7 +5747,7 @@
       </c>
       <c r="H128" s="4"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>829</v>
       </c>
@@ -5769,7 +5768,7 @@
       </c>
       <c r="H129" s="4"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>829</v>
       </c>
@@ -5788,7 +5787,7 @@
       <c r="G130" s="3"/>
       <c r="H130" s="4"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>829</v>
       </c>
@@ -5807,7 +5806,7 @@
       <c r="G131" s="4"/>
       <c r="H131" s="4"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>829</v>
       </c>
@@ -5826,7 +5825,7 @@
       <c r="G132" s="4"/>
       <c r="H132" s="4"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>829</v>
       </c>
@@ -5847,7 +5846,7 @@
       </c>
       <c r="H133" s="4"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>829</v>
       </c>
@@ -5868,7 +5867,7 @@
       </c>
       <c r="H134" s="4"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>829</v>
       </c>
@@ -5887,7 +5886,7 @@
       <c r="G135" s="4"/>
       <c r="H135" s="4"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>829</v>
       </c>
@@ -5908,7 +5907,7 @@
       </c>
       <c r="H136" s="4"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>829</v>
       </c>
@@ -5929,7 +5928,7 @@
       </c>
       <c r="H137" s="4"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>829</v>
       </c>
@@ -5950,7 +5949,7 @@
       </c>
       <c r="H138" s="4"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>829</v>
       </c>
@@ -5971,7 +5970,7 @@
       </c>
       <c r="H139" s="4"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>829</v>
       </c>
@@ -5992,7 +5991,7 @@
       </c>
       <c r="H140" s="4"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>829</v>
       </c>
@@ -6011,7 +6010,7 @@
       <c r="G141" s="4"/>
       <c r="H141" s="4"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>829</v>
       </c>
@@ -6032,7 +6031,7 @@
       </c>
       <c r="H142" s="4"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>829</v>
       </c>
@@ -6053,7 +6052,7 @@
       </c>
       <c r="H143" s="4"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>829</v>
       </c>
@@ -6072,7 +6071,7 @@
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>829</v>
       </c>
@@ -6091,7 +6090,7 @@
       <c r="G145" s="4"/>
       <c r="H145" s="4"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>829</v>
       </c>
@@ -6110,7 +6109,7 @@
       <c r="G146" s="4"/>
       <c r="H146" s="4"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>829</v>
       </c>
@@ -6131,7 +6130,7 @@
       </c>
       <c r="H147" s="4"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>829</v>
       </c>
@@ -6159,7 +6158,7 @@
       <c r="R148" s="3"/>
       <c r="S148" s="3"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>829</v>
       </c>
@@ -6187,7 +6186,7 @@
       <c r="R149" s="3"/>
       <c r="S149" s="3"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>829</v>
       </c>
@@ -6213,7 +6212,7 @@
       <c r="R150" s="3"/>
       <c r="S150" s="3"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>829</v>
       </c>
@@ -6241,7 +6240,7 @@
       <c r="R151" s="3"/>
       <c r="S151" s="3"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>829</v>
       </c>
@@ -6269,7 +6268,7 @@
       <c r="R152" s="3"/>
       <c r="S152" s="3"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>829</v>
       </c>
@@ -6297,7 +6296,7 @@
       <c r="R153" s="3"/>
       <c r="S153" s="3"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>829</v>
       </c>
@@ -6325,7 +6324,7 @@
       <c r="R154" s="3"/>
       <c r="S154" s="3"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>829</v>
       </c>
@@ -6353,7 +6352,7 @@
       <c r="R155" s="3"/>
       <c r="S155" s="3"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>829</v>
       </c>
@@ -6381,7 +6380,7 @@
       <c r="R156" s="3"/>
       <c r="S156" s="3"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>829</v>
       </c>
@@ -6409,7 +6408,7 @@
       <c r="R157" s="3"/>
       <c r="S157" s="3"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>829</v>
       </c>
@@ -6437,7 +6436,7 @@
       <c r="R158" s="3"/>
       <c r="S158" s="3"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>829</v>
       </c>
@@ -6465,7 +6464,7 @@
       <c r="R159" s="3"/>
       <c r="S159" s="3"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>829</v>
       </c>
@@ -6491,7 +6490,7 @@
       <c r="R160" s="3"/>
       <c r="S160" s="3"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>829</v>
       </c>
@@ -6510,7 +6509,7 @@
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>829</v>
       </c>
@@ -6531,7 +6530,7 @@
       </c>
       <c r="H162" s="4"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>829</v>
       </c>
@@ -6552,7 +6551,7 @@
       </c>
       <c r="H163" s="4"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>829</v>
       </c>
@@ -6571,7 +6570,7 @@
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>829</v>
       </c>
@@ -6590,7 +6589,7 @@
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>829</v>
       </c>
@@ -6611,7 +6610,7 @@
       </c>
       <c r="H166" s="4"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>829</v>
       </c>
@@ -6632,7 +6631,7 @@
       </c>
       <c r="H167" s="4"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>829</v>
       </c>
@@ -6653,7 +6652,7 @@
       </c>
       <c r="H168" s="4"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>829</v>
       </c>
@@ -6674,7 +6673,7 @@
       </c>
       <c r="H169" s="4"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>829</v>
       </c>
@@ -6695,7 +6694,7 @@
       </c>
       <c r="H170" s="4"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>829</v>
       </c>
@@ -6716,7 +6715,7 @@
       </c>
       <c r="H171" s="4"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>829</v>
       </c>
@@ -6737,7 +6736,7 @@
       </c>
       <c r="H172" s="4"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>829</v>
       </c>
@@ -6758,7 +6757,7 @@
       </c>
       <c r="H173" s="4"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>829</v>
       </c>
@@ -6779,7 +6778,7 @@
       </c>
       <c r="H174" s="4"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>829</v>
       </c>
@@ -6800,7 +6799,7 @@
       </c>
       <c r="H175" s="4"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>829</v>
       </c>
@@ -6821,7 +6820,7 @@
       </c>
       <c r="H176" s="4"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>829</v>
       </c>
@@ -6842,7 +6841,7 @@
       </c>
       <c r="H177" s="4"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>829</v>
       </c>
@@ -6863,7 +6862,7 @@
       </c>
       <c r="H178" s="4"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>829</v>
       </c>
@@ -6884,7 +6883,7 @@
       </c>
       <c r="H179" s="4"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>829</v>
       </c>
@@ -6905,7 +6904,7 @@
       </c>
       <c r="H180" s="4"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>829</v>
       </c>
@@ -6926,7 +6925,7 @@
       </c>
       <c r="H181" s="4"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>829</v>
       </c>
@@ -6947,7 +6946,7 @@
       </c>
       <c r="H182" s="4"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>829</v>
       </c>
@@ -6968,7 +6967,7 @@
       </c>
       <c r="H183" s="4"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>829</v>
       </c>
@@ -6987,7 +6986,7 @@
       <c r="G184" s="3"/>
       <c r="H184" s="4"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>829</v>
       </c>
@@ -7008,7 +7007,7 @@
       </c>
       <c r="H185" s="4"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>829</v>
       </c>
@@ -7029,7 +7028,7 @@
       </c>
       <c r="H186" s="4"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>829</v>
       </c>
@@ -7048,7 +7047,7 @@
       <c r="G187" s="4"/>
       <c r="H187" s="4"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>829</v>
       </c>
@@ -7069,7 +7068,7 @@
       </c>
       <c r="H188" s="4"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>829</v>
       </c>
@@ -7088,7 +7087,7 @@
       <c r="G189" s="4"/>
       <c r="H189" s="4"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>829</v>
       </c>
@@ -7109,7 +7108,7 @@
       </c>
       <c r="H190" s="4"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>829</v>
       </c>
@@ -7130,7 +7129,7 @@
       </c>
       <c r="H191" s="4"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>829</v>
       </c>
@@ -7150,7 +7149,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>829</v>
       </c>
@@ -7161,7 +7160,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>829</v>
       </c>
@@ -7173,7 +7172,7 @@
       </c>
       <c r="H194" s="3"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>829</v>
       </c>
@@ -7185,7 +7184,7 @@
       </c>
       <c r="H195" s="3"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>829</v>
       </c>
@@ -7197,7 +7196,7 @@
       </c>
       <c r="H196" s="3"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>829</v>
       </c>
@@ -7209,7 +7208,7 @@
       </c>
       <c r="H197" s="3"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>829</v>
       </c>
@@ -7221,7 +7220,7 @@
       </c>
       <c r="H198" s="3"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>829</v>
       </c>
@@ -7233,7 +7232,7 @@
       </c>
       <c r="H199" s="3"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>829</v>
       </c>
@@ -7245,7 +7244,7 @@
       </c>
       <c r="H200" s="3"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>829</v>
       </c>
@@ -7257,7 +7256,7 @@
       </c>
       <c r="H201" s="3"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>829</v>
       </c>
@@ -7269,7 +7268,7 @@
       </c>
       <c r="H202" s="3"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>829</v>
       </c>
@@ -7281,7 +7280,7 @@
       </c>
       <c r="H203" s="3"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>829</v>
       </c>
@@ -7293,7 +7292,7 @@
       </c>
       <c r="H204" s="3"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>829</v>
       </c>
@@ -7305,7 +7304,7 @@
       </c>
       <c r="H205" s="3"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>829</v>
       </c>
@@ -7317,7 +7316,7 @@
       </c>
       <c r="H206" s="3"/>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>829</v>
       </c>
@@ -7329,7 +7328,7 @@
       </c>
       <c r="H207" s="3"/>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>829</v>
       </c>
@@ -7341,7 +7340,7 @@
       </c>
       <c r="H208" s="3"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>829</v>
       </c>
@@ -7353,7 +7352,7 @@
       </c>
       <c r="H209" s="3"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>829</v>
       </c>
@@ -7365,7 +7364,7 @@
       </c>
       <c r="H210" s="3"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>829</v>
       </c>
@@ -7377,7 +7376,7 @@
       </c>
       <c r="H211" s="3"/>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>829</v>
       </c>
@@ -7389,7 +7388,7 @@
       </c>
       <c r="H212" s="3"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>829</v>
       </c>
@@ -7401,7 +7400,7 @@
       </c>
       <c r="H213" s="3"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>829</v>
       </c>
@@ -7413,7 +7412,7 @@
       </c>
       <c r="H214" s="3"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>829</v>
       </c>
@@ -7425,7 +7424,7 @@
       </c>
       <c r="H215" s="3"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>829</v>
       </c>
@@ -7437,7 +7436,7 @@
       </c>
       <c r="H216" s="3"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>829</v>
       </c>
@@ -7449,7 +7448,7 @@
       </c>
       <c r="H217" s="3"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>829</v>
       </c>
@@ -7461,7 +7460,7 @@
       </c>
       <c r="H218" s="3"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>829</v>
       </c>
@@ -7473,7 +7472,7 @@
       </c>
       <c r="H219" s="3"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>829</v>
       </c>
@@ -7485,7 +7484,7 @@
       </c>
       <c r="H220" s="3"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>829</v>
       </c>
@@ -7497,7 +7496,7 @@
       </c>
       <c r="H221" s="3"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>829</v>
       </c>
@@ -7509,7 +7508,7 @@
       </c>
       <c r="H222" s="3"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>829</v>
       </c>
@@ -7521,7 +7520,7 @@
       </c>
       <c r="H223" s="3"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>829</v>
       </c>
@@ -7533,7 +7532,7 @@
       </c>
       <c r="H224" s="3"/>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>829</v>
       </c>
@@ -7545,7 +7544,7 @@
       </c>
       <c r="H225" s="3"/>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>829</v>
       </c>
@@ -7557,7 +7556,7 @@
       </c>
       <c r="H226" s="3"/>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>829</v>
       </c>
@@ -7569,7 +7568,7 @@
       </c>
       <c r="H227" s="3"/>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>829</v>
       </c>
@@ -7581,7 +7580,7 @@
       </c>
       <c r="H228" s="3"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>829</v>
       </c>
@@ -7593,7 +7592,7 @@
       </c>
       <c r="H229" s="3"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>829</v>
       </c>
@@ -7605,7 +7604,7 @@
       </c>
       <c r="H230" s="3"/>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>829</v>
       </c>
@@ -7617,7 +7616,7 @@
       </c>
       <c r="H231" s="3"/>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>829</v>
       </c>
@@ -7629,7 +7628,7 @@
       </c>
       <c r="H232" s="3"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>829</v>
       </c>
@@ -7641,7 +7640,7 @@
       </c>
       <c r="H233" s="3"/>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>829</v>
       </c>
@@ -7653,7 +7652,7 @@
       </c>
       <c r="H234" s="3"/>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>829</v>
       </c>
@@ -7665,7 +7664,7 @@
       </c>
       <c r="H235" s="3"/>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>829</v>
       </c>
@@ -7677,7 +7676,7 @@
       </c>
       <c r="H236" s="3"/>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>829</v>
       </c>
@@ -7689,7 +7688,7 @@
       </c>
       <c r="H237" s="3"/>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>829</v>
       </c>
@@ -7701,7 +7700,7 @@
       </c>
       <c r="H238" s="3"/>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>829</v>
       </c>
@@ -7713,7 +7712,7 @@
       </c>
       <c r="H239" s="3"/>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>829</v>
       </c>
@@ -7725,7 +7724,7 @@
       </c>
       <c r="H240" s="3"/>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>829</v>
       </c>
@@ -7737,7 +7736,7 @@
       </c>
       <c r="H241" s="3"/>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>829</v>
       </c>
@@ -7749,7 +7748,7 @@
       </c>
       <c r="H242" s="3"/>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>829</v>
       </c>
@@ -7761,7 +7760,7 @@
       </c>
       <c r="H243" s="3"/>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>829</v>
       </c>
@@ -7773,7 +7772,7 @@
       </c>
       <c r="H244" s="3"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>829</v>
       </c>
@@ -7785,7 +7784,7 @@
       </c>
       <c r="H245" s="3"/>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>829</v>
       </c>
@@ -7797,7 +7796,7 @@
       </c>
       <c r="H246" s="3"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>829</v>
       </c>
@@ -7809,7 +7808,7 @@
       </c>
       <c r="H247" s="3"/>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>829</v>
       </c>
@@ -7821,7 +7820,7 @@
       </c>
       <c r="H248" s="3"/>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>829</v>
       </c>
@@ -7833,7 +7832,7 @@
       </c>
       <c r="H249" s="3"/>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>829</v>
       </c>
@@ -7845,7 +7844,7 @@
       </c>
       <c r="H250" s="3"/>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>829</v>
       </c>
@@ -7857,7 +7856,7 @@
       </c>
       <c r="H251" s="3"/>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>829</v>
       </c>
@@ -7869,7 +7868,7 @@
       </c>
       <c r="H252" s="3"/>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>829</v>
       </c>
@@ -7881,7 +7880,7 @@
       </c>
       <c r="H253" s="3"/>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>829</v>
       </c>
@@ -7893,7 +7892,7 @@
       </c>
       <c r="H254" s="3"/>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>829</v>
       </c>
@@ -7905,7 +7904,7 @@
       </c>
       <c r="H255" s="3"/>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>829</v>
       </c>
@@ -7917,7 +7916,7 @@
       </c>
       <c r="H256" s="3"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>829</v>
       </c>
@@ -7929,7 +7928,7 @@
       </c>
       <c r="H257" s="3"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>829</v>
       </c>
@@ -7941,7 +7940,7 @@
       </c>
       <c r="H258" s="3"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>829</v>
       </c>
@@ -7953,7 +7952,7 @@
       </c>
       <c r="H259" s="3"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>829</v>
       </c>
@@ -7965,7 +7964,7 @@
       </c>
       <c r="H260" s="3"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>829</v>
       </c>
@@ -7977,7 +7976,7 @@
       </c>
       <c r="H261" s="3"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>829</v>
       </c>
@@ -7989,7 +7988,7 @@
       </c>
       <c r="H262" s="3"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>829</v>
       </c>
@@ -8001,7 +8000,7 @@
       </c>
       <c r="H263" s="3"/>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>829</v>
       </c>
@@ -8013,7 +8012,7 @@
       </c>
       <c r="H264" s="3"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>829</v>
       </c>
@@ -8025,7 +8024,7 @@
       </c>
       <c r="H265" s="3"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>829</v>
       </c>
@@ -8037,7 +8036,7 @@
       </c>
       <c r="H266" s="3"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>829</v>
       </c>
@@ -8049,7 +8048,7 @@
       </c>
       <c r="H267" s="3"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>829</v>
       </c>
@@ -8061,7 +8060,7 @@
       </c>
       <c r="H268" s="3"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>829</v>
       </c>
@@ -8073,7 +8072,7 @@
       </c>
       <c r="H269" s="3"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>829</v>
       </c>
@@ -8085,7 +8084,7 @@
       </c>
       <c r="H270" s="3"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>829</v>
       </c>
@@ -8097,7 +8096,7 @@
       </c>
       <c r="H271" s="3"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>829</v>
       </c>
@@ -8109,7 +8108,7 @@
       </c>
       <c r="H272" s="3"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>829</v>
       </c>
@@ -8121,7 +8120,7 @@
       </c>
       <c r="H273" s="3"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>829</v>
       </c>
@@ -8133,7 +8132,7 @@
       </c>
       <c r="H274" s="3"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>829</v>
       </c>
@@ -8145,7 +8144,7 @@
       </c>
       <c r="H275" s="3"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>829</v>
       </c>
@@ -8157,7 +8156,7 @@
       </c>
       <c r="H276" s="3"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>829</v>
       </c>
@@ -8169,7 +8168,7 @@
       </c>
       <c r="H277" s="3"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>829</v>
       </c>
@@ -8181,7 +8180,7 @@
       </c>
       <c r="H278" s="3"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>829</v>
       </c>
@@ -8193,7 +8192,7 @@
       </c>
       <c r="H279" s="3"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>829</v>
       </c>
@@ -8205,7 +8204,7 @@
       </c>
       <c r="H280" s="3"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>829</v>
       </c>
@@ -8217,7 +8216,7 @@
       </c>
       <c r="H281" s="3"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>829</v>
       </c>
@@ -8229,7 +8228,7 @@
       </c>
       <c r="H282" s="3"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>829</v>
       </c>
@@ -8241,7 +8240,7 @@
       </c>
       <c r="H283" s="3"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>829</v>
       </c>
@@ -8253,7 +8252,7 @@
       </c>
       <c r="H284" s="3"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>829</v>
       </c>
@@ -8265,7 +8264,7 @@
       </c>
       <c r="H285" s="3"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>829</v>
       </c>
@@ -8277,7 +8276,7 @@
       </c>
       <c r="H286" s="3"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>829</v>
       </c>
@@ -8289,7 +8288,7 @@
       </c>
       <c r="H287" s="3"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>829</v>
       </c>
@@ -8301,7 +8300,7 @@
       </c>
       <c r="H288" s="3"/>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>829</v>
       </c>
@@ -8313,7 +8312,7 @@
       </c>
       <c r="H289" s="3"/>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>829</v>
       </c>
@@ -8325,7 +8324,7 @@
       </c>
       <c r="H290" s="3"/>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>829</v>
       </c>
@@ -8337,7 +8336,7 @@
       </c>
       <c r="H291" s="3"/>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>829</v>
       </c>
@@ -8349,7 +8348,7 @@
       </c>
       <c r="H292" s="3"/>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>829</v>
       </c>
@@ -8361,7 +8360,7 @@
       </c>
       <c r="H293" s="3"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>829</v>
       </c>
@@ -8373,7 +8372,7 @@
       </c>
       <c r="H294" s="3"/>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>829</v>
       </c>
@@ -8385,7 +8384,7 @@
       </c>
       <c r="H295" s="3"/>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>829</v>
       </c>
@@ -8397,7 +8396,7 @@
       </c>
       <c r="H296" s="3"/>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>829</v>
       </c>
@@ -8409,7 +8408,7 @@
       </c>
       <c r="H297" s="3"/>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>829</v>
       </c>
@@ -8421,7 +8420,7 @@
       </c>
       <c r="H298" s="3"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>829</v>
       </c>
@@ -8433,7 +8432,7 @@
       </c>
       <c r="H299" s="3"/>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>829</v>
       </c>
@@ -8445,7 +8444,7 @@
       </c>
       <c r="H300" s="3"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>829</v>
       </c>
@@ -8457,7 +8456,7 @@
       </c>
       <c r="H301" s="3"/>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>829</v>
       </c>
@@ -8469,7 +8468,7 @@
       </c>
       <c r="H302" s="3"/>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>829</v>
       </c>
@@ -8481,7 +8480,7 @@
       </c>
       <c r="H303" s="3"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>829</v>
       </c>
@@ -8493,7 +8492,7 @@
       </c>
       <c r="H304" s="3"/>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>829</v>
       </c>
@@ -8505,7 +8504,7 @@
       </c>
       <c r="H305" s="3"/>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>829</v>
       </c>
@@ -8517,7 +8516,7 @@
       </c>
       <c r="H306" s="3"/>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>829</v>
       </c>
@@ -8529,7 +8528,7 @@
       </c>
       <c r="H307" s="3"/>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>829</v>
       </c>
@@ -8541,7 +8540,7 @@
       </c>
       <c r="H308" s="3"/>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>829</v>
       </c>
@@ -8553,7 +8552,7 @@
       </c>
       <c r="H309" s="3"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>829</v>
       </c>
@@ -8565,7 +8564,7 @@
       </c>
       <c r="H310" s="3"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>829</v>
       </c>
@@ -8577,7 +8576,7 @@
       </c>
       <c r="H311" s="3"/>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>829</v>
       </c>
@@ -8589,7 +8588,7 @@
       </c>
       <c r="H312" s="3"/>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>829</v>
       </c>
@@ -8601,7 +8600,7 @@
       </c>
       <c r="H313" s="3"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>829</v>
       </c>
@@ -8613,7 +8612,7 @@
       </c>
       <c r="H314" s="3"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>829</v>
       </c>
@@ -8625,7 +8624,7 @@
       </c>
       <c r="H315" s="3"/>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>829</v>
       </c>
@@ -8637,7 +8636,7 @@
       </c>
       <c r="H316" s="3"/>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>829</v>
       </c>
@@ -8649,7 +8648,7 @@
       </c>
       <c r="H317" s="3"/>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>829</v>
       </c>
@@ -8661,7 +8660,7 @@
       </c>
       <c r="H318" s="3"/>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>829</v>
       </c>
@@ -8682,7 +8681,7 @@
       </c>
       <c r="H319" s="3"/>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>829</v>
       </c>
@@ -8702,7 +8701,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>829</v>
       </c>
@@ -8713,7 +8712,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>829</v>
       </c>
@@ -8734,7 +8733,7 @@
       </c>
       <c r="H322" s="4"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>829</v>
       </c>
@@ -8751,7 +8750,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>829</v>
       </c>
@@ -8771,7 +8770,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>829</v>
       </c>
